--- a/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-04-30.xlsx
+++ b/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-04-30.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\BBG\RMS-RA Data check\RMS-RA部门销售数据核对\表格\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="8505" yWindow="105" windowWidth="10095" windowHeight="5280"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="RA" sheetId="3" r:id="rId2"/>
     <sheet name="RMS" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -317,7 +312,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -328,7 +323,7 @@
     <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="90" x14ac:knownFonts="1">
+  <fonts count="90">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2415,7 +2410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2496,11 +2491,17 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="33" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2514,126 +2515,116 @@
     <xf numFmtId="49" fontId="33" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="355" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="33" borderId="15" xfId="355" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="355" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="4" fontId="34" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="33" fillId="33" borderId="12" xfId="355" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="34" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="33" fillId="33" borderId="16" xfId="355" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="33" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="33" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="33" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="33" fillId="33" borderId="17" xfId="355" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="33" borderId="15" xfId="355" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="33" borderId="14" xfId="355" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="33" borderId="13" xfId="355" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="15" xfId="355" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="13" xfId="355" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="355" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="33" borderId="13" xfId="355" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="355">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="355" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="355" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="355" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="355" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="355" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="33" borderId="10" xfId="355" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="33" borderId="12" xfId="355" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="10" xfId="355" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="12" xfId="355" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="34" fillId="34" borderId="10" xfId="355" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="33" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="34" fillId="34" borderId="10" xfId="355" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="34" fillId="34" borderId="12" xfId="355" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="33" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="33" fillId="35" borderId="10" xfId="355" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="33" fillId="35" borderId="10" xfId="355" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="33" fillId="35" borderId="12" xfId="355" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="10" xfId="355" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="12" xfId="355" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="33" fillId="35" borderId="13" xfId="355" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="13" xfId="355" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="33" fillId="35" borderId="13" xfId="355" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="33" fillId="35" borderId="20" xfId="355" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="33" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="369">
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="192"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="196"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="200"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 4 2" xfId="204"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="208"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="212"/>
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 1 10" xfId="287"/>
     <cellStyle name="20% - 着色 1 11" xfId="301"/>
     <cellStyle name="20% - 着色 1 12" xfId="315"/>
@@ -2648,7 +2639,6 @@
     <cellStyle name="20% - 着色 1 7" xfId="245"/>
     <cellStyle name="20% - 着色 1 8" xfId="259"/>
     <cellStyle name="20% - 着色 1 9" xfId="273"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2 10" xfId="289"/>
     <cellStyle name="20% - 着色 2 11" xfId="303"/>
     <cellStyle name="20% - 着色 2 12" xfId="317"/>
@@ -2663,7 +2653,6 @@
     <cellStyle name="20% - 着色 2 7" xfId="247"/>
     <cellStyle name="20% - 着色 2 8" xfId="261"/>
     <cellStyle name="20% - 着色 2 9" xfId="275"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3 10" xfId="291"/>
     <cellStyle name="20% - 着色 3 11" xfId="305"/>
     <cellStyle name="20% - 着色 3 12" xfId="319"/>
@@ -2678,7 +2667,6 @@
     <cellStyle name="20% - 着色 3 7" xfId="249"/>
     <cellStyle name="20% - 着色 3 8" xfId="263"/>
     <cellStyle name="20% - 着色 3 9" xfId="277"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - 着色 4 10" xfId="293"/>
     <cellStyle name="20% - 着色 4 11" xfId="307"/>
     <cellStyle name="20% - 着色 4 12" xfId="321"/>
@@ -2693,7 +2681,6 @@
     <cellStyle name="20% - 着色 4 7" xfId="251"/>
     <cellStyle name="20% - 着色 4 8" xfId="265"/>
     <cellStyle name="20% - 着色 4 9" xfId="279"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - 着色 5 10" xfId="295"/>
     <cellStyle name="20% - 着色 5 11" xfId="309"/>
     <cellStyle name="20% - 着色 5 12" xfId="323"/>
@@ -2708,7 +2695,6 @@
     <cellStyle name="20% - 着色 5 7" xfId="253"/>
     <cellStyle name="20% - 着色 5 8" xfId="267"/>
     <cellStyle name="20% - 着色 5 9" xfId="281"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - 着色 6 10" xfId="297"/>
     <cellStyle name="20% - 着色 6 11" xfId="311"/>
     <cellStyle name="20% - 着色 6 12" xfId="325"/>
@@ -2723,13 +2709,18 @@
     <cellStyle name="20% - 着色 6 7" xfId="255"/>
     <cellStyle name="20% - 着色 6 8" xfId="269"/>
     <cellStyle name="20% - 着色 6 9" xfId="283"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="193"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 2 2" xfId="197"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="201"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="205"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="209"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="213"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - 着色 1 10" xfId="288"/>
     <cellStyle name="40% - 着色 1 11" xfId="302"/>
     <cellStyle name="40% - 着色 1 12" xfId="316"/>
@@ -2744,7 +2735,6 @@
     <cellStyle name="40% - 着色 1 7" xfId="246"/>
     <cellStyle name="40% - 着色 1 8" xfId="260"/>
     <cellStyle name="40% - 着色 1 9" xfId="274"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - 着色 2 10" xfId="290"/>
     <cellStyle name="40% - 着色 2 11" xfId="304"/>
     <cellStyle name="40% - 着色 2 12" xfId="318"/>
@@ -2759,7 +2749,6 @@
     <cellStyle name="40% - 着色 2 7" xfId="248"/>
     <cellStyle name="40% - 着色 2 8" xfId="262"/>
     <cellStyle name="40% - 着色 2 9" xfId="276"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - 着色 3 10" xfId="292"/>
     <cellStyle name="40% - 着色 3 11" xfId="306"/>
     <cellStyle name="40% - 着色 3 12" xfId="320"/>
@@ -2774,7 +2763,6 @@
     <cellStyle name="40% - 着色 3 7" xfId="250"/>
     <cellStyle name="40% - 着色 3 8" xfId="264"/>
     <cellStyle name="40% - 着色 3 9" xfId="278"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - 着色 4 10" xfId="294"/>
     <cellStyle name="40% - 着色 4 11" xfId="308"/>
     <cellStyle name="40% - 着色 4 12" xfId="322"/>
@@ -2789,7 +2777,6 @@
     <cellStyle name="40% - 着色 4 7" xfId="252"/>
     <cellStyle name="40% - 着色 4 8" xfId="266"/>
     <cellStyle name="40% - 着色 4 9" xfId="280"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 着色 5 10" xfId="296"/>
     <cellStyle name="40% - 着色 5 11" xfId="310"/>
     <cellStyle name="40% - 着色 5 12" xfId="324"/>
@@ -2804,7 +2791,6 @@
     <cellStyle name="40% - 着色 5 7" xfId="254"/>
     <cellStyle name="40% - 着色 5 8" xfId="268"/>
     <cellStyle name="40% - 着色 5 9" xfId="282"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - 着色 6 10" xfId="298"/>
     <cellStyle name="40% - 着色 6 11" xfId="312"/>
     <cellStyle name="40% - 着色 6 12" xfId="326"/>
@@ -2819,28 +2805,28 @@
     <cellStyle name="40% - 着色 6 7" xfId="256"/>
     <cellStyle name="40% - 着色 6 8" xfId="270"/>
     <cellStyle name="40% - 着色 6 9" xfId="284"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="194"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 2 2" xfId="198"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="202"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 4 2" xfId="206"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 5 2" xfId="210"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="214"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - 着色 1 2" xfId="86"/>
     <cellStyle name="60% - 着色 1 3" xfId="152"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - 着色 2 2" xfId="90"/>
     <cellStyle name="60% - 着色 2 3" xfId="156"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - 着色 3 2" xfId="94"/>
     <cellStyle name="60% - 着色 3 3" xfId="160"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 着色 4 2" xfId="98"/>
     <cellStyle name="60% - 着色 4 3" xfId="164"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 着色 5 2" xfId="102"/>
     <cellStyle name="60% - 着色 5 3" xfId="168"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - 着色 6 2" xfId="106"/>
     <cellStyle name="60% - 着色 6 3" xfId="172"/>
     <cellStyle name="OBI_ColHeader" xfId="109"/>
@@ -2929,11 +2915,17 @@
     <cellStyle name="千位分隔 2" xfId="63"/>
     <cellStyle name="千位分隔[0]" xfId="112" builtinId="6" customBuiltin="1"/>
     <cellStyle name="千位分隔[0] 2" xfId="64"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 1 2" xfId="191"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 2 2" xfId="195"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 3 2" xfId="199"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 4 2" xfId="203"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 5 2" xfId="207"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 6 2" xfId="211"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="适中 2" xfId="74"/>
@@ -2947,22 +2939,16 @@
     <cellStyle name="已访问的超链接" xfId="43" builtinId="9" customBuiltin="1"/>
     <cellStyle name="已访问的超链接 2" xfId="108"/>
     <cellStyle name="已访问的超链接 3" xfId="174"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="着色 1 2" xfId="83"/>
     <cellStyle name="着色 1 3" xfId="149"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="着色 2 2" xfId="87"/>
     <cellStyle name="着色 2 3" xfId="153"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="着色 3 2" xfId="91"/>
     <cellStyle name="着色 3 3" xfId="157"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="着色 4 2" xfId="95"/>
     <cellStyle name="着色 4 3" xfId="161"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="着色 5 2" xfId="99"/>
     <cellStyle name="着色 5 3" xfId="165"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="着色 6 2" xfId="103"/>
     <cellStyle name="着色 6 3" xfId="169"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -21322,7 +21308,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21342,7 +21328,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21379,7 +21365,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21399,7 +21385,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21434,7 +21420,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21454,7 +21440,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21491,7 +21477,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21511,7 +21497,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21546,7 +21532,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21566,7 +21552,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21603,7 +21589,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21623,7 +21609,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21658,7 +21644,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21678,7 +21664,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21715,7 +21701,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21735,7 +21721,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21770,7 +21756,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21790,7 +21776,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21827,7 +21813,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21847,7 +21833,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21882,7 +21868,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21902,7 +21888,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21939,7 +21925,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21959,7 +21945,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21994,7 +21980,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22014,7 +22000,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22051,7 +22037,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22071,7 +22057,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22106,7 +22092,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22126,7 +22112,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22163,7 +22149,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22183,7 +22169,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22218,7 +22204,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22238,7 +22224,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22275,7 +22261,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22295,7 +22281,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22330,7 +22316,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22350,7 +22336,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22387,7 +22373,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22407,7 +22393,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22442,7 +22428,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22462,7 +22448,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22499,7 +22485,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22519,7 +22505,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44530,7 +44516,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44550,7 +44536,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44587,7 +44573,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44607,7 +44593,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44642,7 +44628,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44662,7 +44648,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44699,7 +44685,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44719,7 +44705,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44754,7 +44740,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44774,7 +44760,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44811,7 +44797,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44831,7 +44817,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44866,7 +44852,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44886,7 +44872,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44923,7 +44909,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44943,7 +44929,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44978,7 +44964,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44998,7 +44984,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45035,7 +45021,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45055,7 +45041,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45090,7 +45076,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45110,7 +45096,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45147,7 +45133,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45167,7 +45153,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45202,7 +45188,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45222,7 +45208,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45259,7 +45245,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45279,7 +45265,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45314,7 +45300,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45334,7 +45320,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45371,7 +45357,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45391,7 +45377,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45426,7 +45412,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45446,7 +45432,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45483,7 +45469,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45503,7 +45489,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45538,7 +45524,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45558,7 +45544,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45595,7 +45581,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45615,7 +45601,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45650,7 +45636,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45670,7 +45656,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45707,7 +45693,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45727,7 +45713,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -53682,6 +53668,88 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="19792950" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1222" name="Picture 1" descr="徽标"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1223" name="Picture 2" descr="cid:75c00e2913">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId667" tgtFrame="_blank"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId668" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19992975" y="0"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -53738,7 +53806,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -53770,10 +53838,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -53805,7 +53872,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -53981,18 +54047,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" style="4" customWidth="1"/>
@@ -54007,7 +54073,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
@@ -54037,15 +54103,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="13"/>
       <c r="F2" s="24"/>
       <c r="G2" s="14"/>
@@ -54055,28 +54121,28 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="15">
         <f>SUM(E4:E41)</f>
-        <v>32087753.752099998</v>
+        <v>32154761.502099998</v>
       </c>
       <c r="F3" s="25">
         <f>RA!I7</f>
-        <v>682291.90130000003</v>
+        <v>669446.63130000001</v>
       </c>
       <c r="G3" s="16">
         <f>SUM(G4:G41)</f>
-        <v>31405613.291000009</v>
+        <v>31485466.311000008</v>
       </c>
       <c r="H3" s="27">
         <f>RA!J7</f>
-        <v>2.1262300953764899</v>
+        <v>2.08185305275707</v>
       </c>
       <c r="I3" s="20">
         <f>SUM(I4:I41)</f>
@@ -54088,25 +54154,25 @@
       </c>
       <c r="K3" s="22">
         <f>E3-I3</f>
-        <v>-67016.71729631722</v>
+        <v>-8.9672963172197342</v>
       </c>
       <c r="L3" s="22">
         <f>G3-J3</f>
-        <v>-79852.989194545895</v>
+        <v>3.0805453658103943E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="45">
+    <row r="4" spans="1:13">
+      <c r="A4" s="47">
         <f>RA!A8</f>
         <v>42490</v>
       </c>
       <c r="B4" s="12">
         <v>12</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="15">
         <f>VLOOKUP(C4,RA!B8:D35,3,0)</f>
         <v>685274.22450000001</v>
@@ -54140,15 +54206,15 @@
         <v>-1.2611110927537084E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
+    <row r="5" spans="1:13">
+      <c r="A5" s="47"/>
       <c r="B5" s="12">
         <v>13</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="15">
         <f>VLOOKUP(C5,RA!B8:D36,3,0)</f>
         <v>326522.78360000002</v>
@@ -54183,15 +54249,15 @@
       </c>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
+    <row r="6" spans="1:13">
+      <c r="A6" s="47"/>
       <c r="B6" s="12">
         <v>14</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="15">
         <f>VLOOKUP(C6,RA!B10:D37,3,0)</f>
         <v>314137.53460000001</v>
@@ -54226,15 +54292,15 @@
       </c>
       <c r="M6" s="32"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
+    <row r="7" spans="1:13">
+      <c r="A7" s="47"/>
       <c r="B7" s="12">
         <v>15</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="43"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="15">
         <f>VLOOKUP(C7,RA!B10:D38,3,0)</f>
         <v>56882.1774</v>
@@ -54269,15 +54335,15 @@
       </c>
       <c r="M7" s="32"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
+    <row r="8" spans="1:13">
+      <c r="A8" s="47"/>
       <c r="B8" s="12">
         <v>16</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="15">
         <f>VLOOKUP(C8,RA!B12:D38,3,0)</f>
         <v>189191.37409999999</v>
@@ -54312,15 +54378,15 @@
       </c>
       <c r="M8" s="32"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
+    <row r="9" spans="1:13">
+      <c r="A9" s="47"/>
       <c r="B9" s="12">
         <v>17</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="15">
         <f>VLOOKUP(C9,RA!B12:D39,3,0)</f>
         <v>283392.8824</v>
@@ -54355,15 +54421,15 @@
       </c>
       <c r="M9" s="32"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
+    <row r="10" spans="1:13">
+      <c r="A10" s="47"/>
       <c r="B10" s="12">
         <v>18</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="43"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="15">
         <f>VLOOKUP(C10,RA!B14:D40,3,0)</f>
         <v>203960.916</v>
@@ -54398,15 +54464,15 @@
       </c>
       <c r="M10" s="32"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
+    <row r="11" spans="1:13">
+      <c r="A11" s="47"/>
       <c r="B11" s="12">
         <v>19</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="15">
         <f>VLOOKUP(C11,RA!B14:D41,3,0)</f>
         <v>182036.8867</v>
@@ -54441,15 +54507,15 @@
       </c>
       <c r="M11" s="32"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
+    <row r="12" spans="1:13">
+      <c r="A12" s="47"/>
       <c r="B12" s="12">
         <v>21</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="43"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="15">
         <f>VLOOKUP(C12,RA!B16:D42,3,0)</f>
         <v>1837004.5004</v>
@@ -54484,15 +54550,15 @@
       </c>
       <c r="M12" s="32"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
+    <row r="13" spans="1:13">
+      <c r="A13" s="47"/>
       <c r="B13" s="12">
         <v>22</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="43"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="15">
         <f>VLOOKUP(C13,RA!B16:D43,3,0)</f>
         <v>1410598.6081000001</v>
@@ -54527,15 +54593,15 @@
       </c>
       <c r="M13" s="32"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
+    <row r="14" spans="1:13">
+      <c r="A14" s="47"/>
       <c r="B14" s="12">
         <v>23</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="43"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="15">
         <f>VLOOKUP(C14,RA!B18:D43,3,0)</f>
         <v>2519267.2355999998</v>
@@ -54570,15 +54636,15 @@
       </c>
       <c r="M14" s="32"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
+    <row r="15" spans="1:13">
+      <c r="A15" s="47"/>
       <c r="B15" s="12">
         <v>24</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="43"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="15">
         <f>VLOOKUP(C15,RA!B18:D44,3,0)</f>
         <v>1243974.3448000001</v>
@@ -54613,15 +54679,15 @@
       </c>
       <c r="M15" s="32"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
+    <row r="16" spans="1:13">
+      <c r="A16" s="47"/>
       <c r="B16" s="12">
         <v>25</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="15">
         <f>VLOOKUP(C16,RA!B20:D45,3,0)</f>
         <v>2700324.5410000002</v>
@@ -54656,15 +54722,15 @@
       </c>
       <c r="M16" s="32"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
+    <row r="17" spans="1:13">
+      <c r="A17" s="47"/>
       <c r="B17" s="12">
         <v>26</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="43"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="15">
         <f>VLOOKUP(C17,RA!B20:D46,3,0)</f>
         <v>437715.13160000002</v>
@@ -54699,15 +54765,15 @@
       </c>
       <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
+    <row r="18" spans="1:13">
+      <c r="A18" s="47"/>
       <c r="B18" s="12">
         <v>27</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="15">
         <f>VLOOKUP(C18,RA!B22:D47,3,0)</f>
         <v>1827932.3652999999</v>
@@ -54742,15 +54808,15 @@
       </c>
       <c r="M18" s="32"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
+    <row r="19" spans="1:13">
+      <c r="A19" s="47"/>
       <c r="B19" s="12">
         <v>29</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="15">
         <f>VLOOKUP(C19,RA!B22:D48,3,0)</f>
         <v>4381541.9061000003</v>
@@ -54785,15 +54851,15 @@
       </c>
       <c r="M19" s="32"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
+    <row r="20" spans="1:13">
+      <c r="A20" s="47"/>
       <c r="B20" s="12">
         <v>31</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="43"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="15">
         <f>VLOOKUP(C20,RA!B24:D49,3,0)</f>
         <v>374637.55430000002</v>
@@ -54828,15 +54894,15 @@
       </c>
       <c r="M20" s="32"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
+    <row r="21" spans="1:13">
+      <c r="A21" s="47"/>
       <c r="B21" s="12">
         <v>32</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="43"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="15">
         <f>VLOOKUP(C21,RA!B24:D50,3,0)</f>
         <v>343438.6777</v>
@@ -54871,15 +54937,15 @@
       </c>
       <c r="M21" s="32"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
+    <row r="22" spans="1:13">
+      <c r="A22" s="47"/>
       <c r="B22" s="12">
         <v>33</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="15">
         <f>VLOOKUP(C22,RA!B26:D51,3,0)</f>
         <v>762737.11410000001</v>
@@ -54914,15 +54980,15 @@
       </c>
       <c r="M22" s="32"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
+    <row r="23" spans="1:13">
+      <c r="A23" s="47"/>
       <c r="B23" s="12">
         <v>34</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="43"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="15">
         <f>VLOOKUP(C23,RA!B26:D52,3,0)</f>
         <v>310607.3639</v>
@@ -54957,15 +55023,15 @@
       </c>
       <c r="M23" s="32"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
+    <row r="24" spans="1:13">
+      <c r="A24" s="47"/>
       <c r="B24" s="12">
         <v>35</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="43"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="15">
         <f>VLOOKUP(C24,RA!B28:D53,3,0)</f>
         <v>1183368.737</v>
@@ -55000,15 +55066,15 @@
       </c>
       <c r="M24" s="32"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
+    <row r="25" spans="1:13">
+      <c r="A25" s="47"/>
       <c r="B25" s="12">
         <v>36</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="43"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="15">
         <f>VLOOKUP(C25,RA!B28:D54,3,0)</f>
         <v>965249.63780000003</v>
@@ -55043,15 +55109,15 @@
       </c>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
+    <row r="26" spans="1:13">
+      <c r="A26" s="47"/>
       <c r="B26" s="12">
         <v>37</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="43"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="15">
         <f>VLOOKUP(C26,RA!B30:D55,3,0)</f>
         <v>2279267.3798000002</v>
@@ -55086,15 +55152,15 @@
       </c>
       <c r="M26" s="32"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
+    <row r="27" spans="1:13">
+      <c r="A27" s="47"/>
       <c r="B27" s="12">
         <v>38</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="43"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="15">
         <f>VLOOKUP(C27,RA!B30:D56,3,0)</f>
         <v>889216.93859999999</v>
@@ -55129,15 +55195,15 @@
       </c>
       <c r="M27" s="32"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
+    <row r="28" spans="1:13">
+      <c r="A28" s="47"/>
       <c r="B28" s="12">
         <v>39</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="43"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="15">
         <f>VLOOKUP(C28,RA!B32:D57,3,0)</f>
         <v>131714.93210000001</v>
@@ -55172,15 +55238,15 @@
       </c>
       <c r="M28" s="32"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
+    <row r="29" spans="1:13">
+      <c r="A29" s="47"/>
       <c r="B29" s="12">
         <v>40</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="43"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="15">
         <f>VLOOKUP(C29,RA!B32:D58,3,0)</f>
         <v>0</v>
@@ -55215,15 +55281,15 @@
       </c>
       <c r="M29" s="32"/>
     </row>
-    <row r="30" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+    <row r="30" spans="1:13" ht="12" thickBot="1">
+      <c r="A30" s="47"/>
       <c r="B30" s="12">
         <v>42</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="43"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="15">
         <f>VLOOKUP(C30,RA!B34:D60,3,0)</f>
         <v>271771.20939999999</v>
@@ -55258,15 +55324,15 @@
       </c>
       <c r="M30" s="32"/>
     </row>
-    <row r="31" spans="1:13" s="35" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+    <row r="31" spans="1:13" s="35" customFormat="1" ht="12" thickBot="1">
+      <c r="A31" s="47"/>
       <c r="B31" s="12">
         <v>70</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="47"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="15">
         <f>VLOOKUP(C31,RA!B34:D61,3,0)</f>
         <v>256878.69</v>
@@ -55300,26 +55366,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
+    <row r="32" spans="1:13">
+      <c r="A32" s="47"/>
       <c r="B32" s="12">
         <v>71</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="43"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="15">
         <f>VLOOKUP(C32,RA!B34:D61,3,0)</f>
-        <v>1136821.3799999999</v>
+        <v>1149638.48</v>
       </c>
       <c r="F32" s="25">
         <f>VLOOKUP(C32,RA!B34:I65,8,0)</f>
-        <v>-200424.84</v>
+        <v>-203323.13</v>
       </c>
       <c r="G32" s="16">
         <f t="shared" si="0"/>
-        <v>1337246.22</v>
+        <v>1352961.6099999999</v>
       </c>
       <c r="H32" s="27">
         <f>RA!J34</f>
@@ -55335,34 +55401,34 @@
       </c>
       <c r="K32" s="22">
         <f t="shared" si="1"/>
-        <v>-12817.100000000093</v>
+        <v>0</v>
       </c>
       <c r="L32" s="22">
         <f t="shared" si="2"/>
-        <v>-15715.39000000013</v>
+        <v>0</v>
       </c>
       <c r="M32" s="32"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
+    <row r="33" spans="1:13">
+      <c r="A33" s="47"/>
       <c r="B33" s="12">
         <v>72</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="43"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="15">
         <f>VLOOKUP(C33,RA!B34:D62,3,0)</f>
-        <v>1587827.94</v>
+        <v>1613004.9</v>
       </c>
       <c r="F33" s="25">
         <f>VLOOKUP(C33,RA!B34:I66,8,0)</f>
-        <v>-186819.5</v>
+        <v>-191075.03</v>
       </c>
       <c r="G33" s="16">
         <f t="shared" si="0"/>
-        <v>1774647.44</v>
+        <v>1804079.93</v>
       </c>
       <c r="H33" s="27">
         <f>RA!J35</f>
@@ -55378,34 +55444,34 @@
       </c>
       <c r="K33" s="22">
         <f t="shared" si="1"/>
-        <v>-25176.959999999963</v>
+        <v>0</v>
       </c>
       <c r="L33" s="22">
         <f t="shared" si="2"/>
-        <v>-29432.489999999991</v>
+        <v>0</v>
       </c>
       <c r="M33" s="32"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
+    <row r="34" spans="1:13">
+      <c r="A34" s="47"/>
       <c r="B34" s="12">
         <v>73</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="43"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="15">
         <f>VLOOKUP(C34,RA!B34:D63,3,0)</f>
-        <v>901775.62</v>
+        <v>918011.52</v>
       </c>
       <c r="F34" s="25">
         <f>VLOOKUP(C34,RA!B34:I67,8,0)</f>
-        <v>-200147.89</v>
+        <v>-202882.08</v>
       </c>
       <c r="G34" s="16">
         <f t="shared" si="0"/>
-        <v>1101923.51</v>
+        <v>1120893.6000000001</v>
       </c>
       <c r="H34" s="27">
         <f>RA!J34</f>
@@ -55421,23 +55487,23 @@
       </c>
       <c r="K34" s="22">
         <f t="shared" si="1"/>
-        <v>-16235.900000000023</v>
+        <v>0</v>
       </c>
       <c r="L34" s="22">
         <f t="shared" si="2"/>
-        <v>-18970.090000000084</v>
+        <v>0</v>
       </c>
       <c r="M34" s="32"/>
     </row>
-    <row r="35" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
+    <row r="35" spans="1:13" s="35" customFormat="1">
+      <c r="A35" s="47"/>
       <c r="B35" s="12">
         <v>74</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="43"/>
+      <c r="D35" s="42"/>
       <c r="E35" s="15">
         <f>VLOOKUP(C35,RA!B35:D64,3,0)</f>
         <v>0.02</v>
@@ -55471,15 +55537,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
+    <row r="36" spans="1:13" ht="11.25" customHeight="1">
+      <c r="A36" s="47"/>
       <c r="B36" s="12">
         <v>75</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="43"/>
+      <c r="D36" s="42"/>
       <c r="E36" s="15">
         <f>VLOOKUP(C36,RA!B8:D64,3,0)</f>
         <v>106186.32520000001</v>
@@ -55514,15 +55580,15 @@
       </c>
       <c r="M36" s="32"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
+    <row r="37" spans="1:13">
+      <c r="A37" s="47"/>
       <c r="B37" s="12">
         <v>76</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="43"/>
+      <c r="D37" s="42"/>
       <c r="E37" s="15">
         <f>VLOOKUP(C37,RA!B8:D65,3,0)</f>
         <v>1055855.7461999999</v>
@@ -55557,30 +55623,30 @@
       </c>
       <c r="M37" s="32"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
+    <row r="38" spans="1:13">
+      <c r="A38" s="47"/>
       <c r="B38" s="12">
         <v>77</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="43"/>
+      <c r="D38" s="42"/>
       <c r="E38" s="15">
         <f>VLOOKUP(C38,RA!B9:D66,3,0)</f>
-        <v>612653.9</v>
+        <v>625431.68999999994</v>
       </c>
       <c r="F38" s="25">
         <f>VLOOKUP(C38,RA!B9:I70,8,0)</f>
-        <v>-137356.04999999999</v>
+        <v>-140313.31</v>
       </c>
       <c r="G38" s="16">
         <f t="shared" si="0"/>
-        <v>750009.95</v>
+        <v>765745</v>
       </c>
       <c r="H38" s="27">
         <f>RA!J37</f>
-        <v>-17.6302841876531</v>
+        <v>-17.6858319843295</v>
       </c>
       <c r="I38" s="20">
         <f>VLOOKUP(B38,RMS!B:D,3,FALSE)</f>
@@ -55592,23 +55658,23 @@
       </c>
       <c r="K38" s="22">
         <f t="shared" si="1"/>
-        <v>-12777.789999999921</v>
+        <v>0</v>
       </c>
       <c r="L38" s="22">
         <f t="shared" si="2"/>
-        <v>-15735.050000000047</v>
+        <v>0</v>
       </c>
       <c r="M38" s="32"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
+    <row r="39" spans="1:13">
+      <c r="A39" s="47"/>
       <c r="B39" s="12">
         <v>78</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="43"/>
+      <c r="D39" s="42"/>
       <c r="E39" s="15">
         <f>VLOOKUP(C39,RA!B10:D67,3,0)</f>
         <v>273379.83</v>
@@ -55623,7 +55689,7 @@
       </c>
       <c r="H39" s="27">
         <f>RA!J38</f>
-        <v>-11.765726959055799</v>
+        <v>-11.845905117833199</v>
       </c>
       <c r="I39" s="20">
         <f>VLOOKUP(B39,RMS!B:D,3,FALSE)</f>
@@ -55643,15 +55709,15 @@
       </c>
       <c r="M39" s="32"/>
     </row>
-    <row r="40" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="45"/>
+    <row r="40" spans="1:13" s="36" customFormat="1">
+      <c r="A40" s="47"/>
       <c r="B40" s="12">
         <v>9101</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="49"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="15">
         <f>VLOOKUP(C40,RA!B11:D68,3,0)</f>
         <v>0</v>
@@ -55666,7 +55732,7 @@
       </c>
       <c r="H40" s="27">
         <f>RA!J39</f>
-        <v>-22.194865946808399</v>
+        <v>-22.100167109014102</v>
       </c>
       <c r="I40" s="20">
         <f>VLOOKUP(B40,RMS!B:D,3,FALSE)</f>
@@ -55685,15 +55751,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="45"/>
+    <row r="41" spans="1:13">
+      <c r="A41" s="47"/>
       <c r="B41" s="12">
         <v>99</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="43"/>
+      <c r="D41" s="42"/>
       <c r="E41" s="15">
         <f>VLOOKUP(C41,RA!B8:D68,3,0)</f>
         <v>44607.343800000002</v>
@@ -55708,7 +55774,7 @@
       </c>
       <c r="H41" s="27">
         <f>RA!J39</f>
-        <v>-22.194865946808399</v>
+        <v>-22.100167109014102</v>
       </c>
       <c r="I41" s="20">
         <f>VLOOKUP(B41,RMS!B:D,3,FALSE)</f>
@@ -55730,31 +55796,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -55771,6 +55812,31 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -55779,15 +55845,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W46"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="41" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="41"/>
@@ -55795,12 +55861,13 @@
     <col min="6" max="7" width="14" style="41" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="41"/>
     <col min="9" max="9" width="14" style="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="41"/>
+    <col min="10" max="10" width="11.85546875" style="41" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="41" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="41" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="41" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="15.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="41" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="41" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" style="41" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="9.140625" style="41"/>
     <col min="21" max="21" width="12" style="41" bestFit="1" customWidth="1"/>
@@ -55808,2542 +55875,2545 @@
     <col min="23" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="52"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="64" t="s">
+    <row r="1" spans="1:23" ht="12.75">
+      <c r="A1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="61"/>
+      <c r="W1" s="52"/>
     </row>
-    <row r="2" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="61"/>
+    <row r="2" spans="1:23" ht="12.75">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="52"/>
     </row>
-    <row r="3" spans="1:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="65" t="s">
+    <row r="3" spans="1:23" ht="23.25" thickBot="1">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="61"/>
+      <c r="W3" s="52"/>
     </row>
-    <row r="4" spans="1:23" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="61"/>
+    <row r="4" spans="1:23" ht="12.75" thickTop="1" thickBot="1">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="W4" s="52"/>
     </row>
-    <row r="5" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69" t="s">
+    <row r="5" spans="1:23" ht="22.5" thickTop="1" thickBot="1">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="69" t="s">
+      <c r="M5" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="69" t="s">
+      <c r="Q5" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="69" t="s">
+      <c r="R5" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="69" t="s">
+      <c r="S5" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="69" t="s">
+      <c r="T5" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="U5" s="70" t="s">
+      <c r="U5" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
     </row>
-    <row r="6" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+    <row r="6" spans="1:23" ht="12" thickBot="1">
+      <c r="A6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="63"/>
     </row>
-    <row r="7" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+    <row r="7" spans="1:23" ht="12" thickBot="1">
+      <c r="A7" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="73">
-        <v>32089278.708999999</v>
-      </c>
-      <c r="E7" s="73">
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67">
+        <v>32156286.458999999</v>
+      </c>
+      <c r="E7" s="67">
         <v>29845217.733199999</v>
       </c>
-      <c r="F7" s="74">
-        <v>107.51899683179001</v>
-      </c>
-      <c r="G7" s="73">
+      <c r="F7" s="68">
+        <v>107.743514376272</v>
+      </c>
+      <c r="G7" s="67">
         <v>25348192.5942</v>
       </c>
-      <c r="H7" s="74">
-        <v>26.593951776831801</v>
-      </c>
-      <c r="I7" s="73">
-        <v>682291.90130000003</v>
-      </c>
-      <c r="J7" s="74">
-        <v>2.1262300953764899</v>
-      </c>
-      <c r="K7" s="73">
+      <c r="H7" s="68">
+        <v>26.858300999171799</v>
+      </c>
+      <c r="I7" s="67">
+        <v>669446.63130000001</v>
+      </c>
+      <c r="J7" s="68">
+        <v>2.08185305275707</v>
+      </c>
+      <c r="K7" s="67">
         <v>897863.24010000005</v>
       </c>
-      <c r="L7" s="74">
+      <c r="L7" s="68">
         <v>3.5421193710885799</v>
       </c>
-      <c r="M7" s="74">
-        <v>-0.24009373496122999</v>
-      </c>
-      <c r="N7" s="73">
-        <v>522343805.29939997</v>
-      </c>
-      <c r="O7" s="73">
-        <v>2855129067.4250998</v>
-      </c>
-      <c r="P7" s="73">
+      <c r="M7" s="68">
+        <v>-0.254400223328622</v>
+      </c>
+      <c r="N7" s="67">
+        <v>522589411.33939999</v>
+      </c>
+      <c r="O7" s="67">
+        <v>2855374673.4650998</v>
+      </c>
+      <c r="P7" s="67">
         <v>1214353</v>
       </c>
-      <c r="Q7" s="73">
+      <c r="Q7" s="67">
         <v>909989</v>
       </c>
-      <c r="R7" s="74">
+      <c r="R7" s="68">
         <v>33.446997710961298</v>
       </c>
-      <c r="S7" s="73">
-        <v>26.425000563262898</v>
-      </c>
-      <c r="T7" s="73">
-        <v>24.2865052974267</v>
-      </c>
-      <c r="U7" s="75">
-        <v>8.0926971438148705</v>
-      </c>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
+      <c r="S7" s="67">
+        <v>26.4801803585942</v>
+      </c>
+      <c r="T7" s="67">
+        <v>24.4827695269943</v>
+      </c>
+      <c r="U7" s="69">
+        <v>7.5430408877547697</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53">
+    <row r="8" spans="1:23" ht="12" thickBot="1">
+      <c r="A8" s="70">
         <v>42490</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="76">
+      <c r="C8" s="49"/>
+      <c r="D8" s="71">
         <v>685274.22450000001</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="71">
         <v>1025564.339</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="72">
         <v>66.819232927715902</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="71">
         <v>542831.37930000003</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="72">
         <v>26.240716847225201</v>
       </c>
-      <c r="I8" s="76">
+      <c r="I8" s="71">
         <v>142789.22719999999</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="72">
         <v>20.836801107495901</v>
       </c>
-      <c r="K8" s="76">
+      <c r="K8" s="71">
         <v>125492.71490000001</v>
       </c>
-      <c r="L8" s="77">
+      <c r="L8" s="72">
         <v>23.118176230310599</v>
       </c>
-      <c r="M8" s="77">
+      <c r="M8" s="72">
         <v>0.137828815910014</v>
       </c>
-      <c r="N8" s="76">
+      <c r="N8" s="71">
         <v>17830247.362799998</v>
       </c>
-      <c r="O8" s="76">
+      <c r="O8" s="71">
         <v>107216243.1596</v>
       </c>
-      <c r="P8" s="76">
+      <c r="P8" s="71">
         <v>31611</v>
       </c>
-      <c r="Q8" s="76">
+      <c r="Q8" s="71">
         <v>23926</v>
       </c>
-      <c r="R8" s="77">
+      <c r="R8" s="72">
         <v>32.1198695979269</v>
       </c>
-      <c r="S8" s="76">
+      <c r="S8" s="71">
         <v>21.678346920375802</v>
       </c>
-      <c r="T8" s="76">
+      <c r="T8" s="71">
         <v>20.787188330686298</v>
       </c>
-      <c r="U8" s="78">
+      <c r="U8" s="73">
         <v>4.1108235464758698</v>
       </c>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
     </row>
-    <row r="9" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="62" t="s">
+    <row r="9" spans="1:23" ht="12" thickBot="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="76">
+      <c r="C9" s="49"/>
+      <c r="D9" s="71">
         <v>326522.78360000002</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="71">
         <v>166644.3953</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="72">
         <v>195.93985324989799</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="71">
         <v>77721.146399999998</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="72">
         <v>320.12090495875702</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="71">
         <v>28001.677899999999</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="72">
         <v>8.5757194616786308</v>
       </c>
-      <c r="K9" s="76">
+      <c r="K9" s="71">
         <v>17116.571100000001</v>
       </c>
-      <c r="L9" s="77">
+      <c r="L9" s="72">
         <v>22.023055362446399</v>
       </c>
-      <c r="M9" s="77">
+      <c r="M9" s="72">
         <v>0.63593968303616599</v>
       </c>
-      <c r="N9" s="76">
+      <c r="N9" s="71">
         <v>2986813.8144999999</v>
       </c>
-      <c r="O9" s="76">
+      <c r="O9" s="71">
         <v>14944404.7685</v>
       </c>
-      <c r="P9" s="76">
+      <c r="P9" s="71">
         <v>6541</v>
       </c>
-      <c r="Q9" s="76">
+      <c r="Q9" s="71">
         <v>3698</v>
       </c>
-      <c r="R9" s="77">
+      <c r="R9" s="72">
         <v>76.879394267171506</v>
       </c>
-      <c r="S9" s="76">
+      <c r="S9" s="71">
         <v>49.919398195994503</v>
       </c>
-      <c r="T9" s="76">
+      <c r="T9" s="71">
         <v>18.208781719848599</v>
       </c>
-      <c r="U9" s="78">
+      <c r="U9" s="73">
         <v>63.523635344406799</v>
       </c>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
     </row>
-    <row r="10" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="62" t="s">
+    <row r="10" spans="1:23" ht="12" thickBot="1">
+      <c r="A10" s="74"/>
+      <c r="B10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="76">
+      <c r="C10" s="49"/>
+      <c r="D10" s="71">
         <v>314137.53460000001</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="71">
         <v>241804.2046</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="72">
         <v>129.91400836873601</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="71">
         <v>150362.77559999999</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="72">
         <v>108.919749816058</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="71">
         <v>62354.279699999999</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="72">
         <v>19.849356677290199</v>
       </c>
-      <c r="K10" s="76">
+      <c r="K10" s="71">
         <v>36737.274799999999</v>
       </c>
-      <c r="L10" s="77">
+      <c r="L10" s="72">
         <v>24.432426611842899</v>
       </c>
-      <c r="M10" s="77">
+      <c r="M10" s="72">
         <v>0.69730280864491301</v>
       </c>
-      <c r="N10" s="76">
+      <c r="N10" s="71">
         <v>4278407.8364000004</v>
       </c>
-      <c r="O10" s="76">
+      <c r="O10" s="71">
         <v>25474513.4307</v>
       </c>
-      <c r="P10" s="76">
+      <c r="P10" s="71">
         <v>128973</v>
       </c>
-      <c r="Q10" s="76">
+      <c r="Q10" s="71">
         <v>95321</v>
       </c>
-      <c r="R10" s="77">
+      <c r="R10" s="72">
         <v>35.303867982920899</v>
       </c>
-      <c r="S10" s="76">
+      <c r="S10" s="71">
         <v>2.4356844812480101</v>
       </c>
-      <c r="T10" s="76">
+      <c r="T10" s="71">
         <v>1.29021185992593</v>
       </c>
-      <c r="U10" s="78">
+      <c r="U10" s="73">
         <v>47.028776926605602</v>
       </c>
-      <c r="V10" s="63"/>
-      <c r="W10" s="63"/>
     </row>
-    <row r="11" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="62" t="s">
+    <row r="11" spans="1:23" ht="12" thickBot="1">
+      <c r="A11" s="74"/>
+      <c r="B11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="76">
+      <c r="C11" s="49"/>
+      <c r="D11" s="71">
         <v>56882.1774</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="71">
         <v>125020.6591</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="72">
         <v>45.4982223014052</v>
       </c>
-      <c r="G11" s="76">
+      <c r="G11" s="71">
         <v>53486.360999999997</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="72">
         <v>6.3489389379098</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="71">
         <v>12276.2181</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="72">
         <v>21.581835754409799</v>
       </c>
-      <c r="K11" s="76">
+      <c r="K11" s="71">
         <v>11424.1402</v>
       </c>
-      <c r="L11" s="77">
+      <c r="L11" s="72">
         <v>21.358978226243501</v>
       </c>
-      <c r="M11" s="77">
+      <c r="M11" s="72">
         <v>7.4585735563715005E-2</v>
       </c>
-      <c r="N11" s="76">
+      <c r="N11" s="71">
         <v>1474046.6026000001</v>
       </c>
-      <c r="O11" s="76">
+      <c r="O11" s="71">
         <v>8515696.7733999994</v>
       </c>
-      <c r="P11" s="76">
+      <c r="P11" s="71">
         <v>2757</v>
       </c>
-      <c r="Q11" s="76">
+      <c r="Q11" s="71">
         <v>2008</v>
       </c>
-      <c r="R11" s="77">
+      <c r="R11" s="72">
         <v>37.300796812748999</v>
       </c>
-      <c r="S11" s="76">
+      <c r="S11" s="71">
         <v>20.631910554950998</v>
       </c>
-      <c r="T11" s="76">
+      <c r="T11" s="71">
         <v>21.269441633466101</v>
       </c>
-      <c r="U11" s="78">
+      <c r="U11" s="73">
         <v>-3.0900244396518599</v>
       </c>
-      <c r="V11" s="63"/>
-      <c r="W11" s="63"/>
     </row>
-    <row r="12" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="62" t="s">
+    <row r="12" spans="1:23" ht="12" thickBot="1">
+      <c r="A12" s="74"/>
+      <c r="B12" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="76">
+      <c r="C12" s="49"/>
+      <c r="D12" s="71">
         <v>189191.37409999999</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="71">
         <v>354599.07760000002</v>
       </c>
-      <c r="F12" s="77">
+      <c r="F12" s="72">
         <v>53.353600178682498</v>
       </c>
-      <c r="G12" s="76">
+      <c r="G12" s="71">
         <v>321416.77140000003</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="72">
         <v>-41.138300507488701</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I12" s="71">
         <v>31393.829399999999</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="72">
         <v>16.593689616846</v>
       </c>
-      <c r="K12" s="76">
+      <c r="K12" s="71">
         <v>19107.3737</v>
       </c>
-      <c r="L12" s="77">
+      <c r="L12" s="72">
         <v>5.9447345005594201</v>
       </c>
-      <c r="M12" s="77">
+      <c r="M12" s="72">
         <v>0.643021688532736</v>
       </c>
-      <c r="N12" s="76">
+      <c r="N12" s="71">
         <v>3969385.9270000001</v>
       </c>
-      <c r="O12" s="76">
+      <c r="O12" s="71">
         <v>27643425.6336</v>
       </c>
-      <c r="P12" s="76">
+      <c r="P12" s="71">
         <v>2194</v>
       </c>
-      <c r="Q12" s="76">
+      <c r="Q12" s="71">
         <v>1598</v>
       </c>
-      <c r="R12" s="77">
+      <c r="R12" s="72">
         <v>37.296620775969998</v>
       </c>
-      <c r="S12" s="76">
+      <c r="S12" s="71">
         <v>86.231255287146794</v>
       </c>
-      <c r="T12" s="76">
+      <c r="T12" s="71">
         <v>89.7681881101377</v>
       </c>
-      <c r="U12" s="78">
+      <c r="U12" s="73">
         <v>-4.1016830976344796</v>
       </c>
-      <c r="V12" s="63"/>
-      <c r="W12" s="63"/>
     </row>
-    <row r="13" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="62" t="s">
+    <row r="13" spans="1:23" ht="12" thickBot="1">
+      <c r="A13" s="74"/>
+      <c r="B13" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="76">
+      <c r="C13" s="49"/>
+      <c r="D13" s="71">
         <v>283392.8824</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="71">
         <v>445068.26679999998</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="72">
         <v>63.6740256584836</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="71">
         <v>384001.48109999998</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="72">
         <v>-26.200054857028</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="71">
         <v>66970.758799999996</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="72">
         <v>23.631771635489699</v>
       </c>
-      <c r="K13" s="76">
+      <c r="K13" s="71">
         <v>41664.386700000003</v>
       </c>
-      <c r="L13" s="77">
+      <c r="L13" s="72">
         <v>10.8500588541089</v>
       </c>
-      <c r="M13" s="77">
+      <c r="M13" s="72">
         <v>0.60738616608509899</v>
       </c>
-      <c r="N13" s="76">
+      <c r="N13" s="71">
         <v>6507207.1152999997</v>
       </c>
-      <c r="O13" s="76">
+      <c r="O13" s="71">
         <v>46014722.824199997</v>
       </c>
-      <c r="P13" s="76">
+      <c r="P13" s="71">
         <v>15932</v>
       </c>
-      <c r="Q13" s="76">
+      <c r="Q13" s="71">
         <v>11553</v>
       </c>
-      <c r="R13" s="77">
+      <c r="R13" s="72">
         <v>37.903574829048701</v>
       </c>
-      <c r="S13" s="76">
+      <c r="S13" s="71">
         <v>17.787652673863899</v>
       </c>
-      <c r="T13" s="76">
+      <c r="T13" s="71">
         <v>17.682783744481998</v>
       </c>
-      <c r="U13" s="78">
+      <c r="U13" s="73">
         <v>0.58956024892512304</v>
       </c>
-      <c r="V13" s="63"/>
-      <c r="W13" s="63"/>
     </row>
-    <row r="14" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="62" t="s">
+    <row r="14" spans="1:23" ht="12" thickBot="1">
+      <c r="A14" s="74"/>
+      <c r="B14" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="76">
+      <c r="C14" s="49"/>
+      <c r="D14" s="71">
         <v>203960.916</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="71">
         <v>212978.61040000001</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="72">
         <v>95.765915467725307</v>
       </c>
-      <c r="G14" s="76">
+      <c r="G14" s="71">
         <v>211264.14480000001</v>
       </c>
-      <c r="H14" s="77">
+      <c r="H14" s="72">
         <v>-3.4569182607459599</v>
       </c>
-      <c r="I14" s="76">
+      <c r="I14" s="71">
         <v>32229.4496</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="72">
         <v>15.8017772385372</v>
       </c>
-      <c r="K14" s="76">
+      <c r="K14" s="71">
         <v>42719.1806</v>
       </c>
-      <c r="L14" s="77">
+      <c r="L14" s="72">
         <v>20.220743392326</v>
       </c>
-      <c r="M14" s="77">
+      <c r="M14" s="72">
         <v>-0.24555084748044101</v>
       </c>
-      <c r="N14" s="76">
+      <c r="N14" s="71">
         <v>3899489.4188000001</v>
       </c>
-      <c r="O14" s="76">
+      <c r="O14" s="71">
         <v>20433633.4023</v>
       </c>
-      <c r="P14" s="76">
+      <c r="P14" s="71">
         <v>4097</v>
       </c>
-      <c r="Q14" s="76">
+      <c r="Q14" s="71">
         <v>2730</v>
       </c>
-      <c r="R14" s="77">
+      <c r="R14" s="72">
         <v>50.073260073260101</v>
       </c>
-      <c r="S14" s="76">
+      <c r="S14" s="71">
         <v>49.782991457163803</v>
       </c>
-      <c r="T14" s="76">
+      <c r="T14" s="71">
         <v>47.863409304029297</v>
       </c>
-      <c r="U14" s="78">
+      <c r="U14" s="73">
         <v>3.8558995692056799</v>
       </c>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
     </row>
-    <row r="15" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="62" t="s">
+    <row r="15" spans="1:23" ht="12" thickBot="1">
+      <c r="A15" s="74"/>
+      <c r="B15" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="76">
+      <c r="C15" s="49"/>
+      <c r="D15" s="71">
         <v>182036.8867</v>
       </c>
-      <c r="E15" s="76">
+      <c r="E15" s="71">
         <v>247946.709</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="72">
         <v>73.417746673943597</v>
       </c>
-      <c r="G15" s="76">
+      <c r="G15" s="71">
         <v>222223.8603</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H15" s="72">
         <v>-18.084004816471101</v>
       </c>
-      <c r="I15" s="76">
+      <c r="I15" s="71">
         <v>14622.802900000001</v>
       </c>
-      <c r="J15" s="77">
+      <c r="J15" s="72">
         <v>8.03287903077503</v>
       </c>
-      <c r="K15" s="76">
+      <c r="K15" s="71">
         <v>8536.2911000000004</v>
       </c>
-      <c r="L15" s="77">
+      <c r="L15" s="72">
         <v>3.8413026794134901</v>
       </c>
-      <c r="M15" s="77">
+      <c r="M15" s="72">
         <v>0.71301596076075702</v>
       </c>
-      <c r="N15" s="76">
+      <c r="N15" s="71">
         <v>3289259.5266999998</v>
       </c>
-      <c r="O15" s="76">
+      <c r="O15" s="71">
         <v>16613124.3971</v>
       </c>
-      <c r="P15" s="76">
+      <c r="P15" s="71">
         <v>8921</v>
       </c>
-      <c r="Q15" s="76">
+      <c r="Q15" s="71">
         <v>5217</v>
       </c>
-      <c r="R15" s="77">
+      <c r="R15" s="72">
         <v>70.998658232700805</v>
       </c>
-      <c r="S15" s="76">
+      <c r="S15" s="71">
         <v>20.405435119381199</v>
       </c>
-      <c r="T15" s="76">
+      <c r="T15" s="71">
         <v>21.5395130343109</v>
       </c>
-      <c r="U15" s="78">
+      <c r="U15" s="73">
         <v>-5.55772473507571</v>
       </c>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
     </row>
-    <row r="16" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="62" t="s">
+    <row r="16" spans="1:23" ht="12" thickBot="1">
+      <c r="A16" s="74"/>
+      <c r="B16" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="76">
+      <c r="C16" s="49"/>
+      <c r="D16" s="71">
         <v>1837004.5004</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="71">
         <v>2142524.4728000001</v>
       </c>
-      <c r="F16" s="77">
+      <c r="F16" s="72">
         <v>85.740187508769694</v>
       </c>
-      <c r="G16" s="76">
+      <c r="G16" s="71">
         <v>1204189.8276</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="72">
         <v>52.551072787354997</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I16" s="71">
         <v>-81462.904800000004</v>
       </c>
-      <c r="J16" s="77">
+      <c r="J16" s="72">
         <v>-4.43455118276857</v>
       </c>
-      <c r="K16" s="76">
+      <c r="K16" s="71">
         <v>18890.034800000001</v>
       </c>
-      <c r="L16" s="77">
+      <c r="L16" s="72">
         <v>1.56869244092924</v>
       </c>
-      <c r="M16" s="77">
+      <c r="M16" s="72">
         <v>-5.3124803983950297</v>
       </c>
-      <c r="N16" s="76">
+      <c r="N16" s="71">
         <v>27046664.839000002</v>
       </c>
-      <c r="O16" s="76">
+      <c r="O16" s="71">
         <v>138626416.87110001</v>
       </c>
-      <c r="P16" s="76">
+      <c r="P16" s="71">
         <v>73484</v>
       </c>
-      <c r="Q16" s="76">
+      <c r="Q16" s="71">
         <v>48173</v>
       </c>
-      <c r="R16" s="77">
+      <c r="R16" s="72">
         <v>52.541880306395697</v>
       </c>
-      <c r="S16" s="76">
+      <c r="S16" s="71">
         <v>24.998700402808801</v>
       </c>
-      <c r="T16" s="76">
+      <c r="T16" s="71">
         <v>21.6178979075416</v>
       </c>
-      <c r="U16" s="78">
+      <c r="U16" s="73">
         <v>13.5239130066432</v>
       </c>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
     </row>
-    <row r="17" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="62" t="s">
+    <row r="17" spans="1:21" ht="12" thickBot="1">
+      <c r="A17" s="74"/>
+      <c r="B17" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="76">
+      <c r="C17" s="49"/>
+      <c r="D17" s="71">
         <v>1410598.6081000001</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="71">
         <v>1676791.2592</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="72">
         <v>84.124878416470196</v>
       </c>
-      <c r="G17" s="76">
+      <c r="G17" s="71">
         <v>1360866.0926999999</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="72">
         <v>3.65447531294787</v>
       </c>
-      <c r="I17" s="76">
+      <c r="I17" s="71">
         <v>35465.978499999997</v>
       </c>
-      <c r="J17" s="77">
+      <c r="J17" s="72">
         <v>2.5142502123811599</v>
       </c>
-      <c r="K17" s="76">
+      <c r="K17" s="71">
         <v>51968.079400000002</v>
       </c>
-      <c r="L17" s="77">
+      <c r="L17" s="72">
         <v>3.81875040305352</v>
       </c>
-      <c r="M17" s="77">
+      <c r="M17" s="72">
         <v>-0.317543020456515</v>
       </c>
-      <c r="N17" s="76">
+      <c r="N17" s="71">
         <v>24682094.860300001</v>
       </c>
-      <c r="O17" s="76">
+      <c r="O17" s="71">
         <v>174256301.36860001</v>
       </c>
-      <c r="P17" s="76">
+      <c r="P17" s="71">
         <v>14831</v>
       </c>
-      <c r="Q17" s="76">
+      <c r="Q17" s="71">
         <v>10935</v>
       </c>
-      <c r="R17" s="77">
+      <c r="R17" s="72">
         <v>35.628715134887997</v>
       </c>
-      <c r="S17" s="76">
+      <c r="S17" s="71">
         <v>95.1114967365653</v>
       </c>
-      <c r="T17" s="76">
+      <c r="T17" s="71">
         <v>63.343677192501197</v>
       </c>
-      <c r="U17" s="78">
+      <c r="U17" s="73">
         <v>33.4006094258541</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="62" t="s">
+    <row r="18" spans="1:21" ht="12" thickBot="1">
+      <c r="A18" s="74"/>
+      <c r="B18" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="76">
+      <c r="C18" s="49"/>
+      <c r="D18" s="71">
         <v>2519267.2355999998</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="71">
         <v>3379028.0669</v>
       </c>
-      <c r="F18" s="77">
+      <c r="F18" s="72">
         <v>74.555972478536901</v>
       </c>
-      <c r="G18" s="76">
+      <c r="G18" s="71">
         <v>1994738.8308000001</v>
       </c>
-      <c r="H18" s="77">
+      <c r="H18" s="72">
         <v>26.295593022051701</v>
       </c>
-      <c r="I18" s="76">
+      <c r="I18" s="71">
         <v>325525.48320000002</v>
       </c>
-      <c r="J18" s="77">
+      <c r="J18" s="72">
         <v>12.9214351935344</v>
       </c>
-      <c r="K18" s="76">
+      <c r="K18" s="71">
         <v>266804.99040000001</v>
       </c>
-      <c r="L18" s="77">
+      <c r="L18" s="72">
         <v>13.375434732625999</v>
       </c>
-      <c r="M18" s="77">
+      <c r="M18" s="72">
         <v>0.220087685436337</v>
       </c>
-      <c r="N18" s="76">
+      <c r="N18" s="71">
         <v>50018177.556999996</v>
       </c>
-      <c r="O18" s="76">
+      <c r="O18" s="71">
         <v>329298017.5869</v>
       </c>
-      <c r="P18" s="76">
+      <c r="P18" s="71">
         <v>110852</v>
       </c>
-      <c r="Q18" s="76">
+      <c r="Q18" s="71">
         <v>78106</v>
       </c>
-      <c r="R18" s="77">
+      <c r="R18" s="72">
         <v>41.925076178526602</v>
       </c>
-      <c r="S18" s="76">
+      <c r="S18" s="71">
         <v>22.726403092411498</v>
       </c>
-      <c r="T18" s="76">
+      <c r="T18" s="71">
         <v>23.219744634215001</v>
       </c>
-      <c r="U18" s="78">
+      <c r="U18" s="73">
         <v>-2.1707858467416998</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="62" t="s">
+    <row r="19" spans="1:21" ht="12" thickBot="1">
+      <c r="A19" s="74"/>
+      <c r="B19" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="76">
+      <c r="C19" s="49"/>
+      <c r="D19" s="71">
         <v>1243974.3448000001</v>
       </c>
-      <c r="E19" s="76">
+      <c r="E19" s="71">
         <v>824065.49670000002</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F19" s="72">
         <v>150.95576137837801</v>
       </c>
-      <c r="G19" s="76">
+      <c r="G19" s="71">
         <v>820367.27910000004</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="72">
         <v>51.6362703013614</v>
       </c>
-      <c r="I19" s="76">
+      <c r="I19" s="71">
         <v>-77475.787599999996</v>
       </c>
-      <c r="J19" s="77">
+      <c r="J19" s="72">
         <v>-6.22808564532383</v>
       </c>
-      <c r="K19" s="76">
+      <c r="K19" s="71">
         <v>-1078.6387</v>
       </c>
-      <c r="L19" s="77">
+      <c r="L19" s="72">
         <v>-0.13148241372856101</v>
       </c>
-      <c r="M19" s="77">
+      <c r="M19" s="72">
         <v>70.827376117693504</v>
       </c>
-      <c r="N19" s="76">
+      <c r="N19" s="71">
         <v>16364170.0264</v>
       </c>
-      <c r="O19" s="76">
+      <c r="O19" s="71">
         <v>93752751.357299998</v>
       </c>
-      <c r="P19" s="76">
+      <c r="P19" s="71">
         <v>16257</v>
       </c>
-      <c r="Q19" s="76">
+      <c r="Q19" s="71">
         <v>10648</v>
       </c>
-      <c r="R19" s="77">
+      <c r="R19" s="72">
         <v>52.676558978211901</v>
       </c>
-      <c r="S19" s="76">
+      <c r="S19" s="71">
         <v>76.519305210063393</v>
       </c>
-      <c r="T19" s="76">
+      <c r="T19" s="71">
         <v>56.224165195341897</v>
       </c>
-      <c r="U19" s="78">
+      <c r="U19" s="73">
         <v>26.522901585432098</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="62" t="s">
+    <row r="20" spans="1:21" ht="12" thickBot="1">
+      <c r="A20" s="74"/>
+      <c r="B20" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="76">
+      <c r="C20" s="49"/>
+      <c r="D20" s="71">
         <v>2700324.5410000002</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="71">
         <v>1396347.0223000001</v>
       </c>
-      <c r="F20" s="77">
+      <c r="F20" s="72">
         <v>193.384917780119</v>
       </c>
-      <c r="G20" s="76">
+      <c r="G20" s="71">
         <v>854534.05420000001</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="72">
         <v>215.999640708058</v>
       </c>
-      <c r="I20" s="76">
+      <c r="I20" s="71">
         <v>-49729.132299999997</v>
       </c>
-      <c r="J20" s="77">
+      <c r="J20" s="72">
         <v>-1.84159835401059</v>
       </c>
-      <c r="K20" s="76">
+      <c r="K20" s="71">
         <v>52898.113700000002</v>
       </c>
-      <c r="L20" s="77">
+      <c r="L20" s="72">
         <v>6.1902873782511003</v>
       </c>
-      <c r="M20" s="77">
+      <c r="M20" s="72">
         <v>-1.9400927334011899</v>
       </c>
-      <c r="N20" s="76">
+      <c r="N20" s="71">
         <v>30478878.726599999</v>
       </c>
-      <c r="O20" s="76">
+      <c r="O20" s="71">
         <v>157360219.85299999</v>
       </c>
-      <c r="P20" s="76">
+      <c r="P20" s="71">
         <v>55617</v>
       </c>
-      <c r="Q20" s="76">
+      <c r="Q20" s="71">
         <v>36421</v>
       </c>
-      <c r="R20" s="77">
+      <c r="R20" s="72">
         <v>52.705856511353304</v>
       </c>
-      <c r="S20" s="76">
+      <c r="S20" s="71">
         <v>48.552143067767098</v>
       </c>
-      <c r="T20" s="76">
+      <c r="T20" s="71">
         <v>28.960029318250498</v>
       </c>
-      <c r="U20" s="78">
+      <c r="U20" s="73">
         <v>40.352727009744399</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="62" t="s">
+    <row r="21" spans="1:21" ht="12" thickBot="1">
+      <c r="A21" s="74"/>
+      <c r="B21" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="76">
+      <c r="C21" s="49"/>
+      <c r="D21" s="71">
         <v>437715.13160000002</v>
       </c>
-      <c r="E21" s="76">
+      <c r="E21" s="71">
         <v>506397.40990000003</v>
       </c>
-      <c r="F21" s="77">
+      <c r="F21" s="72">
         <v>86.437079464217106</v>
       </c>
-      <c r="G21" s="76">
+      <c r="G21" s="71">
         <v>357257.94650000002</v>
       </c>
-      <c r="H21" s="77">
+      <c r="H21" s="72">
         <v>22.520754510354902</v>
       </c>
-      <c r="I21" s="76">
+      <c r="I21" s="71">
         <v>32947.375999999997</v>
       </c>
-      <c r="J21" s="77">
+      <c r="J21" s="72">
         <v>7.5271274903305203</v>
       </c>
-      <c r="K21" s="76">
+      <c r="K21" s="71">
         <v>28796.282500000001</v>
       </c>
-      <c r="L21" s="77">
+      <c r="L21" s="72">
         <v>8.0603616468472303</v>
       </c>
-      <c r="M21" s="77">
+      <c r="M21" s="72">
         <v>0.14415379832448899</v>
       </c>
-      <c r="N21" s="76">
+      <c r="N21" s="71">
         <v>9921304.9351000004</v>
       </c>
-      <c r="O21" s="76">
+      <c r="O21" s="71">
         <v>57287184.892300002</v>
       </c>
-      <c r="P21" s="76">
+      <c r="P21" s="71">
         <v>36631</v>
       </c>
-      <c r="Q21" s="76">
+      <c r="Q21" s="71">
         <v>29649</v>
       </c>
-      <c r="R21" s="77">
+      <c r="R21" s="72">
         <v>23.548854936085501</v>
       </c>
-      <c r="S21" s="76">
+      <c r="S21" s="71">
         <v>11.9493088258579</v>
       </c>
-      <c r="T21" s="76">
+      <c r="T21" s="71">
         <v>11.7094861884043</v>
       </c>
-      <c r="U21" s="78">
+      <c r="U21" s="73">
         <v>2.0070000779842601</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="62" t="s">
+    <row r="22" spans="1:21" ht="12" thickBot="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="76">
+      <c r="C22" s="49"/>
+      <c r="D22" s="71">
         <v>1827932.3652999999</v>
       </c>
-      <c r="E22" s="76">
+      <c r="E22" s="71">
         <v>1765515.1814999999</v>
       </c>
-      <c r="F22" s="77">
+      <c r="F22" s="72">
         <v>103.535352425968</v>
       </c>
-      <c r="G22" s="76">
+      <c r="G22" s="71">
         <v>1433172.0303</v>
       </c>
-      <c r="H22" s="77">
+      <c r="H22" s="72">
         <v>27.544518498408401</v>
       </c>
-      <c r="I22" s="76">
+      <c r="I22" s="71">
         <v>12098.989100000001</v>
       </c>
-      <c r="J22" s="77">
+      <c r="J22" s="72">
         <v>0.66189479051180999</v>
       </c>
-      <c r="K22" s="76">
+      <c r="K22" s="71">
         <v>159189.8504</v>
       </c>
-      <c r="L22" s="77">
+      <c r="L22" s="72">
         <v>11.107518639383301</v>
       </c>
-      <c r="M22" s="77">
+      <c r="M22" s="72">
         <v>-0.92399647923785</v>
       </c>
-      <c r="N22" s="76">
+      <c r="N22" s="71">
         <v>34978299.391900003</v>
       </c>
-      <c r="O22" s="76">
+      <c r="O22" s="71">
         <v>178874751.62959999</v>
       </c>
-      <c r="P22" s="76">
+      <c r="P22" s="71">
         <v>105413</v>
       </c>
-      <c r="Q22" s="76">
+      <c r="Q22" s="71">
         <v>76123</v>
       </c>
-      <c r="R22" s="77">
+      <c r="R22" s="72">
         <v>38.477201371464602</v>
       </c>
-      <c r="S22" s="76">
+      <c r="S22" s="71">
         <v>17.340673022302799</v>
       </c>
-      <c r="T22" s="76">
+      <c r="T22" s="71">
         <v>16.557693342353801</v>
       </c>
-      <c r="U22" s="78">
+      <c r="U22" s="73">
         <v>4.5152784954880101</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="62" t="s">
+    <row r="23" spans="1:21" ht="12" thickBot="1">
+      <c r="A23" s="74"/>
+      <c r="B23" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="76">
+      <c r="C23" s="49"/>
+      <c r="D23" s="71">
         <v>4381541.9061000003</v>
       </c>
-      <c r="E23" s="76">
+      <c r="E23" s="71">
         <v>5911825.5994999995</v>
       </c>
-      <c r="F23" s="77">
+      <c r="F23" s="72">
         <v>74.114870818763194</v>
       </c>
-      <c r="G23" s="76">
+      <c r="G23" s="71">
         <v>2945458.5904000001</v>
       </c>
-      <c r="H23" s="77">
+      <c r="H23" s="72">
         <v>48.755848083573802</v>
       </c>
-      <c r="I23" s="76">
+      <c r="I23" s="71">
         <v>-36476.4427</v>
       </c>
-      <c r="J23" s="77">
+      <c r="J23" s="72">
         <v>-0.83250242681046505</v>
       </c>
-      <c r="K23" s="76">
+      <c r="K23" s="71">
         <v>222566.75270000001</v>
       </c>
-      <c r="L23" s="77">
+      <c r="L23" s="72">
         <v>7.5562682641474499</v>
       </c>
-      <c r="M23" s="77">
+      <c r="M23" s="72">
         <v>-1.1638898993560201</v>
       </c>
-      <c r="N23" s="76">
+      <c r="N23" s="71">
         <v>80147588.676300004</v>
       </c>
-      <c r="O23" s="76">
+      <c r="O23" s="71">
         <v>401957420.45819998</v>
       </c>
-      <c r="P23" s="76">
+      <c r="P23" s="71">
         <v>106554</v>
       </c>
-      <c r="Q23" s="76">
+      <c r="Q23" s="71">
         <v>74798</v>
       </c>
-      <c r="R23" s="77">
+      <c r="R23" s="72">
         <v>42.455680633172001</v>
       </c>
-      <c r="S23" s="76">
+      <c r="S23" s="71">
         <v>41.120388780336697</v>
       </c>
-      <c r="T23" s="76">
+      <c r="T23" s="71">
         <v>33.696900066846702</v>
       </c>
-      <c r="U23" s="78">
+      <c r="U23" s="73">
         <v>18.053060619504301</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="62" t="s">
+    <row r="24" spans="1:21" ht="12" thickBot="1">
+      <c r="A24" s="74"/>
+      <c r="B24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="76">
+      <c r="C24" s="49"/>
+      <c r="D24" s="71">
         <v>374637.55430000002</v>
       </c>
-      <c r="E24" s="76">
+      <c r="E24" s="71">
         <v>295117.38270000002</v>
       </c>
-      <c r="F24" s="77">
+      <c r="F24" s="72">
         <v>126.94526864953799</v>
       </c>
-      <c r="G24" s="76">
+      <c r="G24" s="71">
         <v>280225.86719999998</v>
       </c>
-      <c r="H24" s="77">
+      <c r="H24" s="72">
         <v>33.691281980266801</v>
       </c>
-      <c r="I24" s="76">
+      <c r="I24" s="71">
         <v>49966.434600000001</v>
       </c>
-      <c r="J24" s="77">
+      <c r="J24" s="72">
         <v>13.3372733263116</v>
       </c>
-      <c r="K24" s="76">
+      <c r="K24" s="71">
         <v>34465.9231</v>
       </c>
-      <c r="L24" s="77">
+      <c r="L24" s="72">
         <v>12.299336761585</v>
       </c>
-      <c r="M24" s="77">
+      <c r="M24" s="72">
         <v>0.44973440737468601</v>
       </c>
-      <c r="N24" s="76">
+      <c r="N24" s="71">
         <v>6678773.9283999996</v>
       </c>
-      <c r="O24" s="76">
+      <c r="O24" s="71">
         <v>39549311.632600002</v>
       </c>
-      <c r="P24" s="76">
+      <c r="P24" s="71">
         <v>31394</v>
       </c>
-      <c r="Q24" s="76">
+      <c r="Q24" s="71">
         <v>22387</v>
       </c>
-      <c r="R24" s="77">
+      <c r="R24" s="72">
         <v>40.2331710367624</v>
       </c>
-      <c r="S24" s="76">
+      <c r="S24" s="71">
         <v>11.9334125724661</v>
       </c>
-      <c r="T24" s="76">
+      <c r="T24" s="71">
         <v>11.299677763880799</v>
       </c>
-      <c r="U24" s="78">
+      <c r="U24" s="73">
         <v>5.3105916244567402</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="62" t="s">
+    <row r="25" spans="1:21" ht="12" thickBot="1">
+      <c r="A25" s="74"/>
+      <c r="B25" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="76">
+      <c r="C25" s="49"/>
+      <c r="D25" s="71">
         <v>343438.6777</v>
       </c>
-      <c r="E25" s="76">
+      <c r="E25" s="71">
         <v>357524.72350000002</v>
       </c>
-      <c r="F25" s="77">
+      <c r="F25" s="72">
         <v>96.060119797561399</v>
       </c>
-      <c r="G25" s="76">
+      <c r="G25" s="71">
         <v>304572.13</v>
       </c>
-      <c r="H25" s="77">
+      <c r="H25" s="72">
         <v>12.761032238898601</v>
       </c>
-      <c r="I25" s="76">
+      <c r="I25" s="71">
         <v>26788.5481</v>
       </c>
-      <c r="J25" s="77">
+      <c r="J25" s="72">
         <v>7.8000964479021997</v>
       </c>
-      <c r="K25" s="76">
+      <c r="K25" s="71">
         <v>698.3501</v>
       </c>
-      <c r="L25" s="77">
+      <c r="L25" s="72">
         <v>0.22928890440500899</v>
       </c>
-      <c r="M25" s="77">
+      <c r="M25" s="72">
         <v>37.359768402696602</v>
       </c>
-      <c r="N25" s="76">
+      <c r="N25" s="71">
         <v>7304556.1162999999</v>
       </c>
-      <c r="O25" s="76">
+      <c r="O25" s="71">
         <v>52041056.486599997</v>
       </c>
-      <c r="P25" s="76">
+      <c r="P25" s="71">
         <v>21619</v>
       </c>
-      <c r="Q25" s="76">
+      <c r="Q25" s="71">
         <v>16256</v>
       </c>
-      <c r="R25" s="77">
+      <c r="R25" s="72">
         <v>32.990895669291298</v>
       </c>
-      <c r="S25" s="76">
+      <c r="S25" s="71">
         <v>15.885965016883301</v>
       </c>
-      <c r="T25" s="76">
+      <c r="T25" s="71">
         <v>14.459155105807101</v>
       </c>
-      <c r="U25" s="78">
+      <c r="U25" s="73">
         <v>8.9815753060001207</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="62" t="s">
+    <row r="26" spans="1:21" ht="12" thickBot="1">
+      <c r="A26" s="74"/>
+      <c r="B26" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="76">
+      <c r="C26" s="49"/>
+      <c r="D26" s="71">
         <v>762737.11410000001</v>
       </c>
-      <c r="E26" s="76">
+      <c r="E26" s="71">
         <v>760781.07779999997</v>
       </c>
-      <c r="F26" s="77">
+      <c r="F26" s="72">
         <v>100.257108957764</v>
       </c>
-      <c r="G26" s="76">
+      <c r="G26" s="71">
         <v>542060.00399999996</v>
       </c>
-      <c r="H26" s="77">
+      <c r="H26" s="72">
         <v>40.710826932731997</v>
       </c>
-      <c r="I26" s="76">
+      <c r="I26" s="71">
         <v>126615.0275</v>
       </c>
-      <c r="J26" s="77">
+      <c r="J26" s="72">
         <v>16.600087390450501</v>
       </c>
-      <c r="K26" s="76">
+      <c r="K26" s="71">
         <v>102531.79859999999</v>
       </c>
-      <c r="L26" s="77">
+      <c r="L26" s="72">
         <v>18.915211940263301</v>
       </c>
-      <c r="M26" s="77">
+      <c r="M26" s="72">
         <v>0.23488546215749301</v>
       </c>
-      <c r="N26" s="76">
+      <c r="N26" s="71">
         <v>17013221.4234</v>
       </c>
-      <c r="O26" s="76">
+      <c r="O26" s="71">
         <v>93198778.092800006</v>
       </c>
-      <c r="P26" s="76">
+      <c r="P26" s="71">
         <v>48326</v>
       </c>
-      <c r="Q26" s="76">
+      <c r="Q26" s="71">
         <v>40489</v>
       </c>
-      <c r="R26" s="77">
+      <c r="R26" s="72">
         <v>19.355874435031701</v>
       </c>
-      <c r="S26" s="76">
+      <c r="S26" s="71">
         <v>15.783162564665</v>
       </c>
-      <c r="T26" s="76">
+      <c r="T26" s="71">
         <v>16.945400506310399</v>
       </c>
-      <c r="U26" s="78">
+      <c r="U26" s="73">
         <v>-7.3637836326121802</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="62" t="s">
+    <row r="27" spans="1:21" ht="12" thickBot="1">
+      <c r="A27" s="74"/>
+      <c r="B27" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="76">
+      <c r="C27" s="49"/>
+      <c r="D27" s="71">
         <v>310607.3639</v>
       </c>
-      <c r="E27" s="76">
+      <c r="E27" s="71">
         <v>344987.16019999998</v>
       </c>
-      <c r="F27" s="77">
+      <c r="F27" s="72">
         <v>90.034470766949994</v>
       </c>
-      <c r="G27" s="76">
+      <c r="G27" s="71">
         <v>247592.40729999999</v>
       </c>
-      <c r="H27" s="77">
+      <c r="H27" s="72">
         <v>25.451086035787299</v>
       </c>
-      <c r="I27" s="76">
+      <c r="I27" s="71">
         <v>78378.328899999993</v>
       </c>
-      <c r="J27" s="77">
+      <c r="J27" s="72">
         <v>25.2338926920077</v>
       </c>
-      <c r="K27" s="76">
+      <c r="K27" s="71">
         <v>69731.977899999998</v>
       </c>
-      <c r="L27" s="77">
+      <c r="L27" s="72">
         <v>28.164021126668899</v>
       </c>
-      <c r="M27" s="77">
+      <c r="M27" s="72">
         <v>0.123994059259289</v>
       </c>
-      <c r="N27" s="76">
+      <c r="N27" s="71">
         <v>6745221.7529999996</v>
       </c>
-      <c r="O27" s="76">
+      <c r="O27" s="71">
         <v>31847923.849100001</v>
       </c>
-      <c r="P27" s="76">
+      <c r="P27" s="71">
         <v>36497</v>
       </c>
-      <c r="Q27" s="76">
+      <c r="Q27" s="71">
         <v>29759</v>
       </c>
-      <c r="R27" s="77">
+      <c r="R27" s="72">
         <v>22.6418898484492</v>
       </c>
-      <c r="S27" s="76">
+      <c r="S27" s="71">
         <v>8.5104902841329402</v>
       </c>
-      <c r="T27" s="76">
+      <c r="T27" s="71">
         <v>8.4077594374811007</v>
       </c>
-      <c r="U27" s="78">
+      <c r="U27" s="73">
         <v>1.2071084417237099</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="62" t="s">
+    <row r="28" spans="1:21" ht="12" thickBot="1">
+      <c r="A28" s="74"/>
+      <c r="B28" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="76">
+      <c r="C28" s="49"/>
+      <c r="D28" s="71">
         <v>1183368.737</v>
       </c>
-      <c r="E28" s="76">
+      <c r="E28" s="71">
         <v>1109540.5112000001</v>
       </c>
-      <c r="F28" s="77">
+      <c r="F28" s="72">
         <v>106.653945940212</v>
       </c>
-      <c r="G28" s="76">
+      <c r="G28" s="71">
         <v>838392.37650000001</v>
       </c>
-      <c r="H28" s="77">
+      <c r="H28" s="72">
         <v>41.147363712938102</v>
       </c>
-      <c r="I28" s="76">
+      <c r="I28" s="71">
         <v>41812.943800000001</v>
       </c>
-      <c r="J28" s="77">
+      <c r="J28" s="72">
         <v>3.5333824946230599</v>
       </c>
-      <c r="K28" s="76">
+      <c r="K28" s="71">
         <v>17846.564900000001</v>
       </c>
-      <c r="L28" s="77">
+      <c r="L28" s="72">
         <v>2.1286649783843798</v>
       </c>
-      <c r="M28" s="77">
+      <c r="M28" s="72">
         <v>1.3429127136954</v>
       </c>
-      <c r="N28" s="76">
+      <c r="N28" s="71">
         <v>24329712.863299999</v>
       </c>
-      <c r="O28" s="76">
+      <c r="O28" s="71">
         <v>133033396.47229999</v>
       </c>
-      <c r="P28" s="76">
+      <c r="P28" s="71">
         <v>46449</v>
       </c>
-      <c r="Q28" s="76">
+      <c r="Q28" s="71">
         <v>37889</v>
       </c>
-      <c r="R28" s="77">
+      <c r="R28" s="72">
         <v>22.592309113462999</v>
       </c>
-      <c r="S28" s="76">
+      <c r="S28" s="71">
         <v>25.4767322654955</v>
       </c>
-      <c r="T28" s="76">
+      <c r="T28" s="71">
         <v>23.2447471165774</v>
       </c>
-      <c r="U28" s="78">
+      <c r="U28" s="73">
         <v>8.7608768882068109</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="62" t="s">
+    <row r="29" spans="1:21" ht="12" thickBot="1">
+      <c r="A29" s="74"/>
+      <c r="B29" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="76">
+      <c r="C29" s="49"/>
+      <c r="D29" s="71">
         <v>965249.63780000003</v>
       </c>
-      <c r="E29" s="76">
+      <c r="E29" s="71">
         <v>977716.74230000004</v>
       </c>
-      <c r="F29" s="77">
+      <c r="F29" s="72">
         <v>98.724875624951196</v>
       </c>
-      <c r="G29" s="76">
+      <c r="G29" s="71">
         <v>722097.83660000004</v>
       </c>
-      <c r="H29" s="77">
+      <c r="H29" s="72">
         <v>33.6729718433836</v>
       </c>
-      <c r="I29" s="76">
+      <c r="I29" s="71">
         <v>150390.78719999999</v>
       </c>
-      <c r="J29" s="77">
+      <c r="J29" s="72">
         <v>15.580506980844</v>
       </c>
-      <c r="K29" s="76">
+      <c r="K29" s="71">
         <v>111474.1905</v>
       </c>
-      <c r="L29" s="77">
+      <c r="L29" s="72">
         <v>15.437546666096701</v>
       </c>
-      <c r="M29" s="77">
+      <c r="M29" s="72">
         <v>0.34910858312086201</v>
       </c>
-      <c r="N29" s="76">
+      <c r="N29" s="71">
         <v>24551319.0704</v>
       </c>
-      <c r="O29" s="76">
+      <c r="O29" s="71">
         <v>98438937.124599993</v>
       </c>
-      <c r="P29" s="76">
+      <c r="P29" s="71">
         <v>121085</v>
       </c>
-      <c r="Q29" s="76">
+      <c r="Q29" s="71">
         <v>107183</v>
       </c>
-      <c r="R29" s="77">
+      <c r="R29" s="72">
         <v>12.9703404457796</v>
       </c>
-      <c r="S29" s="76">
+      <c r="S29" s="71">
         <v>7.9716698005533297</v>
       </c>
-      <c r="T29" s="76">
+      <c r="T29" s="71">
         <v>7.6760554565556101</v>
       </c>
-      <c r="U29" s="78">
+      <c r="U29" s="73">
         <v>3.7083114503463199</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="62" t="s">
+    <row r="30" spans="1:21" ht="12" thickBot="1">
+      <c r="A30" s="74"/>
+      <c r="B30" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="76">
+      <c r="C30" s="49"/>
+      <c r="D30" s="71">
         <v>2279267.3798000002</v>
       </c>
-      <c r="E30" s="76">
+      <c r="E30" s="71">
         <v>2049734.0981999999</v>
       </c>
-      <c r="F30" s="77">
+      <c r="F30" s="72">
         <v>111.19819794194601</v>
       </c>
-      <c r="G30" s="76">
+      <c r="G30" s="71">
         <v>1653668.5323999999</v>
       </c>
-      <c r="H30" s="77">
+      <c r="H30" s="72">
         <v>37.830970060974401</v>
       </c>
-      <c r="I30" s="76">
+      <c r="I30" s="71">
         <v>190356.02739999999</v>
       </c>
-      <c r="J30" s="77">
+      <c r="J30" s="72">
         <v>8.3516321554473905</v>
       </c>
-      <c r="K30" s="76">
+      <c r="K30" s="71">
         <v>180545.8805</v>
       </c>
-      <c r="L30" s="77">
+      <c r="L30" s="72">
         <v>10.9179002298587</v>
       </c>
-      <c r="M30" s="77">
+      <c r="M30" s="72">
         <v>5.4336032884449999E-2</v>
       </c>
-      <c r="N30" s="76">
+      <c r="N30" s="71">
         <v>37998230.285099998</v>
       </c>
-      <c r="O30" s="76">
+      <c r="O30" s="71">
         <v>142228924.59889999</v>
       </c>
-      <c r="P30" s="76">
+      <c r="P30" s="71">
         <v>109893</v>
       </c>
-      <c r="Q30" s="76">
+      <c r="Q30" s="71">
         <v>80109</v>
       </c>
-      <c r="R30" s="77">
+      <c r="R30" s="72">
         <v>37.179343144965003</v>
       </c>
-      <c r="S30" s="76">
+      <c r="S30" s="71">
         <v>20.740787673464201</v>
       </c>
-      <c r="T30" s="76">
+      <c r="T30" s="71">
         <v>18.585429432398399</v>
       </c>
-      <c r="U30" s="78">
+      <c r="U30" s="73">
         <v>10.3918822900993</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="62" t="s">
+    <row r="31" spans="1:21" ht="12" thickBot="1">
+      <c r="A31" s="74"/>
+      <c r="B31" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="76">
+      <c r="C31" s="49"/>
+      <c r="D31" s="71">
         <v>889216.93859999999</v>
       </c>
-      <c r="E31" s="76">
+      <c r="E31" s="71">
         <v>1561384.7926</v>
       </c>
-      <c r="F31" s="77">
+      <c r="F31" s="72">
         <v>56.950531529084898</v>
       </c>
-      <c r="G31" s="76">
+      <c r="G31" s="71">
         <v>480483.3481</v>
       </c>
-      <c r="H31" s="77">
+      <c r="H31" s="72">
         <v>85.067170822105794</v>
       </c>
-      <c r="I31" s="76">
+      <c r="I31" s="71">
         <v>44672.995999999999</v>
       </c>
-      <c r="J31" s="77">
+      <c r="J31" s="72">
         <v>5.0238579654514899</v>
       </c>
-      <c r="K31" s="76">
+      <c r="K31" s="71">
         <v>30713.807400000002</v>
       </c>
-      <c r="L31" s="77">
+      <c r="L31" s="72">
         <v>6.39227301454945</v>
       </c>
-      <c r="M31" s="77">
+      <c r="M31" s="72">
         <v>0.45449228805152903</v>
       </c>
-      <c r="N31" s="76">
+      <c r="N31" s="71">
         <v>25968639.3158</v>
       </c>
-      <c r="O31" s="76">
+      <c r="O31" s="71">
         <v>159966602.667</v>
       </c>
-      <c r="P31" s="76">
+      <c r="P31" s="71">
         <v>29874</v>
       </c>
-      <c r="Q31" s="76">
+      <c r="Q31" s="71">
         <v>24860</v>
       </c>
-      <c r="R31" s="77">
+      <c r="R31" s="72">
         <v>20.1689460981496</v>
       </c>
-      <c r="S31" s="76">
+      <c r="S31" s="71">
         <v>29.7655800562362</v>
       </c>
-      <c r="T31" s="76">
+      <c r="T31" s="71">
         <v>22.889944818986301</v>
       </c>
-      <c r="U31" s="78">
+      <c r="U31" s="73">
         <v>23.099281869393099</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="62" t="s">
+    <row r="32" spans="1:21" ht="12" thickBot="1">
+      <c r="A32" s="74"/>
+      <c r="B32" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="76">
+      <c r="C32" s="49"/>
+      <c r="D32" s="71">
         <v>131714.93210000001</v>
       </c>
-      <c r="E32" s="76">
+      <c r="E32" s="71">
         <v>151497.67499999999</v>
       </c>
-      <c r="F32" s="77">
+      <c r="F32" s="72">
         <v>86.941883497551999</v>
       </c>
-      <c r="G32" s="76">
+      <c r="G32" s="71">
         <v>109155.99280000001</v>
       </c>
-      <c r="H32" s="77">
+      <c r="H32" s="72">
         <v>20.666697925906298</v>
       </c>
-      <c r="I32" s="76">
+      <c r="I32" s="71">
         <v>32829.760199999997</v>
       </c>
-      <c r="J32" s="77">
+      <c r="J32" s="72">
         <v>24.924858310730599</v>
       </c>
-      <c r="K32" s="76">
+      <c r="K32" s="71">
         <v>30101.444800000001</v>
       </c>
-      <c r="L32" s="77">
+      <c r="L32" s="72">
         <v>27.5765388851834</v>
       </c>
-      <c r="M32" s="77">
+      <c r="M32" s="72">
         <v>9.0637357048058004E-2</v>
       </c>
-      <c r="N32" s="76">
+      <c r="N32" s="71">
         <v>3086037.8409000002</v>
       </c>
-      <c r="O32" s="76">
+      <c r="O32" s="71">
         <v>15402391.666999999</v>
       </c>
-      <c r="P32" s="76">
+      <c r="P32" s="71">
         <v>26388</v>
       </c>
-      <c r="Q32" s="76">
+      <c r="Q32" s="71">
         <v>23046</v>
       </c>
-      <c r="R32" s="77">
+      <c r="R32" s="72">
         <v>14.5014319187712</v>
       </c>
-      <c r="S32" s="76">
+      <c r="S32" s="71">
         <v>4.9914708238593297</v>
       </c>
-      <c r="T32" s="76">
+      <c r="T32" s="71">
         <v>4.66699510110214</v>
       </c>
-      <c r="U32" s="78">
+      <c r="U32" s="73">
         <v>6.5006034134505297</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="62" t="s">
+    <row r="33" spans="1:21" ht="12" thickBot="1">
+      <c r="A33" s="74"/>
+      <c r="B33" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="76">
+      <c r="C33" s="49"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="71">
         <v>9.8230000000000004</v>
       </c>
-      <c r="O33" s="76">
+      <c r="O33" s="71">
         <v>301.12830000000002</v>
       </c>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="79"/>
-      <c r="R33" s="79"/>
-      <c r="S33" s="79"/>
-      <c r="T33" s="79"/>
-      <c r="U33" s="80"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="75"/>
+      <c r="U33" s="76"/>
     </row>
-    <row r="34" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="62" t="s">
+    <row r="34" spans="1:21" ht="12" thickBot="1">
+      <c r="A34" s="74"/>
+      <c r="B34" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="76">
+      <c r="C34" s="49"/>
+      <c r="D34" s="71">
         <v>271771.20939999999</v>
       </c>
-      <c r="E34" s="76">
+      <c r="E34" s="71">
         <v>249493.0882</v>
       </c>
-      <c r="F34" s="77">
+      <c r="F34" s="72">
         <v>108.929354059757</v>
       </c>
-      <c r="G34" s="76">
+      <c r="G34" s="71">
         <v>230449.9221</v>
       </c>
-      <c r="H34" s="77">
+      <c r="H34" s="72">
         <v>17.9307013530121</v>
       </c>
-      <c r="I34" s="76">
+      <c r="I34" s="71">
         <v>6352.2575999999999</v>
       </c>
-      <c r="J34" s="77">
+      <c r="J34" s="72">
         <v>2.3373548706738001</v>
       </c>
-      <c r="K34" s="76">
+      <c r="K34" s="71">
         <v>6364.1514999999999</v>
       </c>
-      <c r="L34" s="77">
+      <c r="L34" s="72">
         <v>2.76162015678113</v>
       </c>
-      <c r="M34" s="77">
+      <c r="M34" s="72">
         <v>-1.8688901419140001E-3</v>
       </c>
-      <c r="N34" s="76">
+      <c r="N34" s="71">
         <v>3924354.0595</v>
       </c>
-      <c r="O34" s="76">
+      <c r="O34" s="71">
         <v>26819996.726599999</v>
       </c>
-      <c r="P34" s="76">
+      <c r="P34" s="71">
         <v>17483</v>
       </c>
-      <c r="Q34" s="76">
+      <c r="Q34" s="71">
         <v>13893</v>
       </c>
-      <c r="R34" s="77">
+      <c r="R34" s="72">
         <v>25.8403512560282</v>
       </c>
-      <c r="S34" s="76">
+      <c r="S34" s="71">
         <v>15.5448841388778</v>
       </c>
-      <c r="T34" s="76">
+      <c r="T34" s="71">
         <v>14.3382954869359</v>
       </c>
-      <c r="U34" s="78">
+      <c r="U34" s="73">
         <v>7.7619661951948604</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
-      <c r="B35" s="62" t="s">
+    <row r="35" spans="1:21" ht="12" thickBot="1">
+      <c r="A35" s="74"/>
+      <c r="B35" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="76">
+      <c r="C35" s="49"/>
+      <c r="D35" s="71">
         <v>1524.9568999999999</v>
       </c>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="76">
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="71">
         <v>151.4402</v>
       </c>
-      <c r="J35" s="77">
+      <c r="J35" s="72">
         <v>9.9307855848253794</v>
       </c>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="76">
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="71">
         <v>2914.4443000000001</v>
       </c>
-      <c r="O35" s="76">
+      <c r="O35" s="71">
         <v>2914.4443000000001</v>
       </c>
-      <c r="P35" s="76">
+      <c r="P35" s="71">
         <v>164</v>
       </c>
-      <c r="Q35" s="76">
+      <c r="Q35" s="71">
         <v>136</v>
       </c>
-      <c r="R35" s="77">
+      <c r="R35" s="72">
         <v>20.588235294117599</v>
       </c>
-      <c r="S35" s="76">
+      <c r="S35" s="71">
         <v>9.2985176829268301</v>
       </c>
-      <c r="T35" s="76">
+      <c r="T35" s="71">
         <v>10.2168191176471</v>
       </c>
-      <c r="U35" s="78">
+      <c r="U35" s="73">
         <v>-9.8757830660078092</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="62" t="s">
+    <row r="36" spans="1:21" ht="12" thickBot="1">
+      <c r="A36" s="74"/>
+      <c r="B36" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="76">
+      <c r="C36" s="49"/>
+      <c r="D36" s="71">
         <v>256878.69</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="76">
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="71">
         <v>293646.32</v>
       </c>
-      <c r="H36" s="77">
+      <c r="H36" s="72">
         <v>-12.521059347857699</v>
       </c>
-      <c r="I36" s="76">
+      <c r="I36" s="71">
         <v>-7046.32</v>
       </c>
-      <c r="J36" s="77">
+      <c r="J36" s="72">
         <v>-2.7430535401749401</v>
       </c>
-      <c r="K36" s="76">
+      <c r="K36" s="71">
         <v>-12396.12</v>
       </c>
-      <c r="L36" s="77">
+      <c r="L36" s="72">
         <v>-4.2214457174195097</v>
       </c>
-      <c r="M36" s="77">
+      <c r="M36" s="72">
         <v>-0.43157052367998999</v>
       </c>
-      <c r="N36" s="76">
+      <c r="N36" s="71">
         <v>4693760.45</v>
       </c>
-      <c r="O36" s="76">
+      <c r="O36" s="71">
         <v>19894600.68</v>
       </c>
-      <c r="P36" s="76">
+      <c r="P36" s="71">
         <v>155</v>
       </c>
-      <c r="Q36" s="76">
+      <c r="Q36" s="71">
         <v>100</v>
       </c>
-      <c r="R36" s="77">
+      <c r="R36" s="72">
         <v>55</v>
       </c>
-      <c r="S36" s="76">
+      <c r="S36" s="71">
         <v>1657.2818709677399</v>
       </c>
-      <c r="T36" s="76">
+      <c r="T36" s="71">
         <v>8603.8978000000006</v>
       </c>
-      <c r="U36" s="78">
+      <c r="U36" s="73">
         <v>-419.15717843313502</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="62" t="s">
+    <row r="37" spans="1:21" ht="12" thickBot="1">
+      <c r="A37" s="74"/>
+      <c r="B37" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="76">
-        <v>1136821.3799999999</v>
-      </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="76">
+      <c r="C37" s="49"/>
+      <c r="D37" s="71">
+        <v>1149638.48</v>
+      </c>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="71">
         <v>1349992.68</v>
       </c>
-      <c r="H37" s="77">
-        <v>-15.7905522865502</v>
-      </c>
-      <c r="I37" s="76">
-        <v>-200424.84</v>
-      </c>
-      <c r="J37" s="77">
-        <v>-17.6302841876531</v>
-      </c>
-      <c r="K37" s="76">
+      <c r="H37" s="72">
+        <v>-14.841132323769401</v>
+      </c>
+      <c r="I37" s="71">
+        <v>-203323.13</v>
+      </c>
+      <c r="J37" s="72">
+        <v>-17.6858319843295</v>
+      </c>
+      <c r="K37" s="71">
         <v>-277697.90999999997</v>
       </c>
-      <c r="L37" s="77">
+      <c r="L37" s="72">
         <v>-20.570327092440198</v>
       </c>
-      <c r="M37" s="77">
-        <v>-0.27826305930786499</v>
-      </c>
-      <c r="N37" s="76">
-        <v>8945030.1699999999</v>
-      </c>
-      <c r="O37" s="76">
-        <v>59215171.619999997</v>
-      </c>
-      <c r="P37" s="76">
+      <c r="M37" s="72">
+        <v>-0.26782621446448801</v>
+      </c>
+      <c r="N37" s="71">
+        <v>8987324.2100000009</v>
+      </c>
+      <c r="O37" s="71">
+        <v>59257465.659999996</v>
+      </c>
+      <c r="P37" s="71">
         <v>447</v>
       </c>
-      <c r="Q37" s="76">
+      <c r="Q37" s="71">
         <v>316</v>
       </c>
-      <c r="R37" s="77">
+      <c r="R37" s="72">
         <v>41.455696202531598</v>
       </c>
-      <c r="S37" s="76">
-        <v>2543.2245637583901</v>
-      </c>
-      <c r="T37" s="76">
-        <v>5362.6201265822801</v>
-      </c>
-      <c r="U37" s="78">
-        <v>-110.85908822213401</v>
+      <c r="S37" s="71">
+        <v>2571.8981655481002</v>
+      </c>
+      <c r="T37" s="71">
+        <v>5455.9015822784804</v>
+      </c>
+      <c r="U37" s="73">
+        <v>-112.13521030354499</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="62" t="s">
+    <row r="38" spans="1:21" ht="12" thickBot="1">
+      <c r="A38" s="74"/>
+      <c r="B38" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="76">
-        <v>1587827.94</v>
-      </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="76">
+      <c r="C38" s="49"/>
+      <c r="D38" s="71">
+        <v>1613004.9</v>
+      </c>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="71">
         <v>2287485.59</v>
       </c>
-      <c r="H38" s="77">
-        <v>-30.586319453055001</v>
-      </c>
-      <c r="I38" s="76">
-        <v>-186819.5</v>
-      </c>
-      <c r="J38" s="77">
-        <v>-11.765726959055799</v>
-      </c>
-      <c r="K38" s="76">
+      <c r="H38" s="72">
+        <v>-29.485680388482798</v>
+      </c>
+      <c r="I38" s="71">
+        <v>-191075.03</v>
+      </c>
+      <c r="J38" s="72">
+        <v>-11.845905117833199</v>
+      </c>
+      <c r="K38" s="71">
         <v>-267477.43</v>
       </c>
-      <c r="L38" s="77">
+      <c r="L38" s="72">
         <v>-11.693076064361099</v>
       </c>
-      <c r="M38" s="77">
-        <v>-0.30155041492659801</v>
-      </c>
-      <c r="N38" s="76">
-        <v>6130162.0800000001</v>
-      </c>
-      <c r="O38" s="76">
-        <v>30495459.280000001</v>
-      </c>
-      <c r="P38" s="76">
+      <c r="M38" s="72">
+        <v>-0.28564054918577603</v>
+      </c>
+      <c r="N38" s="71">
+        <v>6250175.7699999996</v>
+      </c>
+      <c r="O38" s="71">
+        <v>30615472.969999999</v>
+      </c>
+      <c r="P38" s="71">
         <v>626</v>
       </c>
-      <c r="Q38" s="76">
+      <c r="Q38" s="71">
         <v>382</v>
       </c>
-      <c r="R38" s="77">
+      <c r="R38" s="72">
         <v>63.874345549738202</v>
       </c>
-      <c r="S38" s="76">
-        <v>2536.4663578274799</v>
-      </c>
-      <c r="T38" s="76">
-        <v>2176.2512041884802</v>
-      </c>
-      <c r="U38" s="78">
-        <v>14.201455995163499</v>
+      <c r="S38" s="71">
+        <v>2576.6851437699702</v>
+      </c>
+      <c r="T38" s="71">
+        <v>2424.5148952879599</v>
+      </c>
+      <c r="U38" s="73">
+        <v>5.9056594031263101</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="62" t="s">
+    <row r="39" spans="1:21" ht="12" thickBot="1">
+      <c r="A39" s="74"/>
+      <c r="B39" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="76">
-        <v>901775.62</v>
-      </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="76">
+      <c r="C39" s="49"/>
+      <c r="D39" s="71">
+        <v>918011.52</v>
+      </c>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="71">
         <v>1042533.88</v>
       </c>
-      <c r="H39" s="77">
-        <v>-13.501552582636499</v>
-      </c>
-      <c r="I39" s="76">
-        <v>-200147.89</v>
-      </c>
-      <c r="J39" s="77">
-        <v>-22.194865946808399</v>
-      </c>
-      <c r="K39" s="76">
+      <c r="H39" s="72">
+        <v>-11.944202715023501</v>
+      </c>
+      <c r="I39" s="71">
+        <v>-202882.08</v>
+      </c>
+      <c r="J39" s="72">
+        <v>-22.100167109014102</v>
+      </c>
+      <c r="K39" s="71">
         <v>-206290.74</v>
       </c>
-      <c r="L39" s="77">
+      <c r="L39" s="72">
         <v>-19.7874375075465</v>
       </c>
-      <c r="M39" s="77">
-        <v>-2.977763325683E-2</v>
-      </c>
-      <c r="N39" s="76">
-        <v>6456292.4699999997</v>
-      </c>
-      <c r="O39" s="76">
-        <v>34318965.280000001</v>
-      </c>
-      <c r="P39" s="76">
+      <c r="M39" s="72">
+        <v>-1.6523572507423E-2</v>
+      </c>
+      <c r="N39" s="71">
+        <v>6501368.5599999996</v>
+      </c>
+      <c r="O39" s="71">
+        <v>34364041.369999997</v>
+      </c>
+      <c r="P39" s="71">
         <v>400</v>
       </c>
-      <c r="Q39" s="76">
+      <c r="Q39" s="71">
         <v>252</v>
       </c>
-      <c r="R39" s="77">
+      <c r="R39" s="72">
         <v>58.730158730158699</v>
       </c>
-      <c r="S39" s="76">
-        <v>2254.43905</v>
-      </c>
-      <c r="T39" s="76">
-        <v>2195.9156349206401</v>
-      </c>
-      <c r="U39" s="78">
-        <v>2.5959191524545702</v>
+      <c r="S39" s="71">
+        <v>2295.0288</v>
+      </c>
+      <c r="T39" s="71">
+        <v>2310.36083333333</v>
+      </c>
+      <c r="U39" s="73">
+        <v>-0.668054071187827</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="62" t="s">
+    <row r="40" spans="1:21" ht="12" thickBot="1">
+      <c r="A40" s="74"/>
+      <c r="B40" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="76">
+      <c r="C40" s="49"/>
+      <c r="D40" s="71">
         <v>0.02</v>
       </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="76">
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="71">
         <v>4.1900000000000004</v>
       </c>
-      <c r="H40" s="77">
+      <c r="H40" s="72">
         <v>-99.522673031026301</v>
       </c>
-      <c r="I40" s="76">
+      <c r="I40" s="71">
         <v>-81.19</v>
       </c>
-      <c r="J40" s="77">
+      <c r="J40" s="72">
         <v>-405950</v>
       </c>
-      <c r="K40" s="76">
+      <c r="K40" s="71">
         <v>4.12</v>
       </c>
-      <c r="L40" s="77">
+      <c r="L40" s="72">
         <v>98.329355608591896</v>
       </c>
-      <c r="M40" s="77">
+      <c r="M40" s="72">
         <v>-20.7063106796117</v>
       </c>
-      <c r="N40" s="76">
+      <c r="N40" s="71">
         <v>17.14</v>
       </c>
-      <c r="O40" s="76">
+      <c r="O40" s="71">
         <v>1244.45</v>
       </c>
-      <c r="P40" s="76">
+      <c r="P40" s="71">
         <v>2</v>
       </c>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="79"/>
-      <c r="S40" s="76">
+      <c r="Q40" s="75"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="71">
         <v>0.01</v>
       </c>
-      <c r="T40" s="79"/>
-      <c r="U40" s="80"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="76"/>
     </row>
-    <row r="41" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="62" t="s">
+    <row r="41" spans="1:21" ht="12" thickBot="1">
+      <c r="A41" s="74"/>
+      <c r="B41" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="76">
+      <c r="C41" s="49"/>
+      <c r="D41" s="71">
         <v>106186.32520000001</v>
       </c>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="76">
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="71">
         <v>205024.78690000001</v>
       </c>
-      <c r="H41" s="77">
+      <c r="H41" s="72">
         <v>-48.208054837880702</v>
       </c>
-      <c r="I41" s="76">
+      <c r="I41" s="71">
         <v>7840.4312</v>
       </c>
-      <c r="J41" s="77">
+      <c r="J41" s="72">
         <v>7.3836543314148004</v>
       </c>
-      <c r="K41" s="76">
+      <c r="K41" s="71">
         <v>8875.7394000000004</v>
       </c>
-      <c r="L41" s="77">
+      <c r="L41" s="72">
         <v>4.32910553606823</v>
       </c>
-      <c r="M41" s="77">
+      <c r="M41" s="72">
         <v>-0.116644727086061</v>
       </c>
-      <c r="N41" s="76">
+      <c r="N41" s="71">
         <v>1583913.1666000001</v>
       </c>
-      <c r="O41" s="76">
+      <c r="O41" s="71">
         <v>11460755.2962</v>
       </c>
-      <c r="P41" s="76">
+      <c r="P41" s="71">
         <v>146</v>
       </c>
-      <c r="Q41" s="76">
+      <c r="Q41" s="71">
         <v>102</v>
       </c>
-      <c r="R41" s="77">
+      <c r="R41" s="72">
         <v>43.137254901960802</v>
       </c>
-      <c r="S41" s="76">
+      <c r="S41" s="71">
         <v>727.30359726027405</v>
       </c>
-      <c r="T41" s="76">
+      <c r="T41" s="71">
         <v>1107.2515490196099</v>
       </c>
-      <c r="U41" s="78">
+      <c r="U41" s="73">
         <v>-52.240625949133801</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="62" t="s">
+    <row r="42" spans="1:21" ht="12" thickBot="1">
+      <c r="A42" s="74"/>
+      <c r="B42" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="76">
+      <c r="C42" s="49"/>
+      <c r="D42" s="71">
         <v>1055855.7461999999</v>
       </c>
-      <c r="E42" s="76">
+      <c r="E42" s="71">
         <v>1565319.7109000001</v>
       </c>
-      <c r="F42" s="77">
+      <c r="F42" s="72">
         <v>67.453040988854795</v>
       </c>
-      <c r="G42" s="76">
+      <c r="G42" s="71">
         <v>816853.78</v>
       </c>
-      <c r="H42" s="77">
+      <c r="H42" s="72">
         <v>29.258843143261199</v>
       </c>
-      <c r="I42" s="76">
+      <c r="I42" s="71">
         <v>67502.542300000001</v>
       </c>
-      <c r="J42" s="77">
+      <c r="J42" s="72">
         <v>6.3931595336711498</v>
       </c>
-      <c r="K42" s="76">
+      <c r="K42" s="71">
         <v>31865.1734</v>
       </c>
-      <c r="L42" s="77">
+      <c r="L42" s="72">
         <v>3.9009641848018402</v>
       </c>
-      <c r="M42" s="77">
+      <c r="M42" s="72">
         <v>1.11837988303557</v>
       </c>
-      <c r="N42" s="76">
+      <c r="N42" s="71">
         <v>11585215.642200001</v>
       </c>
-      <c r="O42" s="76">
+      <c r="O42" s="71">
         <v>66192373.747199997</v>
       </c>
-      <c r="P42" s="76">
+      <c r="P42" s="71">
         <v>2176</v>
       </c>
-      <c r="Q42" s="76">
+      <c r="Q42" s="71">
         <v>1562</v>
       </c>
-      <c r="R42" s="77">
+      <c r="R42" s="72">
         <v>39.308578745198503</v>
       </c>
-      <c r="S42" s="76">
+      <c r="S42" s="71">
         <v>485.22782454044102</v>
       </c>
-      <c r="T42" s="76">
+      <c r="T42" s="71">
         <v>878.96841107554405</v>
       </c>
-      <c r="U42" s="78">
+      <c r="U42" s="73">
         <v>-81.145508691306901</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="62" t="s">
+    <row r="43" spans="1:21" ht="12" thickBot="1">
+      <c r="A43" s="74"/>
+      <c r="B43" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="76">
-        <v>612653.9</v>
-      </c>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="76">
+      <c r="C43" s="49"/>
+      <c r="D43" s="71">
+        <v>625431.68999999994</v>
+      </c>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="71">
         <v>683589.08</v>
       </c>
-      <c r="H43" s="77">
-        <v>-10.376874364347699</v>
-      </c>
-      <c r="I43" s="76">
-        <v>-137356.04999999999</v>
-      </c>
-      <c r="J43" s="77">
-        <v>-22.419844221998702</v>
-      </c>
-      <c r="K43" s="76">
+      <c r="H43" s="72">
+        <v>-8.5076534575420908</v>
+      </c>
+      <c r="I43" s="71">
+        <v>-140313.31</v>
+      </c>
+      <c r="J43" s="72">
+        <v>-22.4346339086208</v>
+      </c>
+      <c r="K43" s="71">
         <v>-103850.71</v>
       </c>
-      <c r="L43" s="77">
+      <c r="L43" s="72">
         <v>-15.191979076084699</v>
       </c>
-      <c r="M43" s="77">
-        <v>0.32262985972845099</v>
-      </c>
-      <c r="N43" s="76">
-        <v>4785996.51</v>
-      </c>
-      <c r="O43" s="76">
-        <v>28015443.09</v>
-      </c>
-      <c r="P43" s="76">
+      <c r="M43" s="72">
+        <v>0.351105928885801</v>
+      </c>
+      <c r="N43" s="71">
+        <v>4824218.7300000004</v>
+      </c>
+      <c r="O43" s="71">
+        <v>28053665.309999999</v>
+      </c>
+      <c r="P43" s="71">
         <v>355</v>
       </c>
-      <c r="Q43" s="76">
+      <c r="Q43" s="71">
         <v>246</v>
       </c>
-      <c r="R43" s="77">
+      <c r="R43" s="72">
         <v>44.308943089430898</v>
       </c>
-      <c r="S43" s="76">
-        <v>1725.78563380282</v>
-      </c>
-      <c r="T43" s="76">
-        <v>1552.1435365853699</v>
-      </c>
-      <c r="U43" s="78">
-        <v>10.0616260685185</v>
+      <c r="S43" s="71">
+        <v>1761.7794084507</v>
+      </c>
+      <c r="T43" s="71">
+        <v>1655.5761788617899</v>
+      </c>
+      <c r="U43" s="73">
+        <v>6.0281797527824397</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="62" t="s">
+    <row r="44" spans="1:21" ht="12" thickBot="1">
+      <c r="A44" s="74"/>
+      <c r="B44" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="76">
+      <c r="C44" s="49"/>
+      <c r="D44" s="71">
         <v>273379.83</v>
       </c>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="76">
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="71">
         <v>311661.64</v>
       </c>
-      <c r="H44" s="77">
+      <c r="H44" s="72">
         <v>-12.2831317963931</v>
       </c>
-      <c r="I44" s="76">
+      <c r="I44" s="71">
         <v>33536.400000000001</v>
       </c>
-      <c r="J44" s="77">
+      <c r="J44" s="72">
         <v>12.267327841999199</v>
       </c>
-      <c r="K44" s="76">
+      <c r="K44" s="71">
         <v>35239.25</v>
       </c>
-      <c r="L44" s="77">
+      <c r="L44" s="72">
         <v>11.306893591396101</v>
       </c>
-      <c r="M44" s="77">
+      <c r="M44" s="72">
         <v>-4.8322538078989001E-2</v>
       </c>
-      <c r="N44" s="76">
+      <c r="N44" s="71">
         <v>2168143.9300000002</v>
       </c>
-      <c r="O44" s="76">
+      <c r="O44" s="71">
         <v>10716371.460000001</v>
       </c>
-      <c r="P44" s="76">
+      <c r="P44" s="71">
         <v>189</v>
       </c>
-      <c r="Q44" s="76">
+      <c r="Q44" s="71">
         <v>105</v>
       </c>
-      <c r="R44" s="77">
+      <c r="R44" s="72">
         <v>80</v>
       </c>
-      <c r="S44" s="76">
+      <c r="S44" s="71">
         <v>1446.45412698413</v>
       </c>
-      <c r="T44" s="76">
+      <c r="T44" s="71">
         <v>1360.0396190476199</v>
       </c>
-      <c r="U44" s="78">
+      <c r="U44" s="73">
         <v>5.9742307982267304</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="62" t="s">
+    <row r="45" spans="1:21" ht="12" thickBot="1">
+      <c r="A45" s="74"/>
+      <c r="B45" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="76">
+      <c r="C45" s="49"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="75"/>
+      <c r="N45" s="71">
         <v>828.80349999999999</v>
       </c>
-      <c r="O45" s="76">
+      <c r="O45" s="71">
         <v>-695.12810000000002</v>
       </c>
-      <c r="P45" s="79"/>
-      <c r="Q45" s="79"/>
-      <c r="R45" s="79"/>
-      <c r="S45" s="79"/>
-      <c r="T45" s="79"/>
-      <c r="U45" s="80"/>
+      <c r="P45" s="75"/>
+      <c r="Q45" s="75"/>
+      <c r="R45" s="75"/>
+      <c r="S45" s="75"/>
+      <c r="T45" s="75"/>
+      <c r="U45" s="76"/>
     </row>
-    <row r="46" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
-      <c r="B46" s="62" t="s">
+    <row r="46" spans="1:21" ht="12" thickBot="1">
+      <c r="A46" s="77"/>
+      <c r="B46" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="81">
+      <c r="C46" s="49"/>
+      <c r="D46" s="78">
         <v>44607.343800000002</v>
       </c>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="81">
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="78">
         <v>14809.658799999999</v>
       </c>
-      <c r="H46" s="83">
+      <c r="H46" s="80">
         <v>201.20439911822999</v>
       </c>
-      <c r="I46" s="81">
+      <c r="I46" s="78">
         <v>5441.9633000000003</v>
       </c>
-      <c r="J46" s="83">
+      <c r="J46" s="80">
         <v>12.1997026417879</v>
       </c>
-      <c r="K46" s="81">
+      <c r="K46" s="78">
         <v>2284.3797</v>
       </c>
-      <c r="L46" s="83">
+      <c r="L46" s="80">
         <v>15.4249313292755</v>
       </c>
-      <c r="M46" s="83">
+      <c r="M46" s="80">
         <v>1.3822498947963899</v>
       </c>
-      <c r="N46" s="81">
+      <c r="N46" s="78">
         <v>519417.397</v>
       </c>
-      <c r="O46" s="81">
+      <c r="O46" s="78">
         <v>4020014.3533000001</v>
       </c>
-      <c r="P46" s="81">
+      <c r="P46" s="78">
         <v>20</v>
       </c>
-      <c r="Q46" s="81">
+      <c r="Q46" s="78">
         <v>13</v>
       </c>
-      <c r="R46" s="83">
+      <c r="R46" s="80">
         <v>53.846153846153904</v>
       </c>
-      <c r="S46" s="81">
+      <c r="S46" s="78">
         <v>2230.3671899999999</v>
       </c>
-      <c r="T46" s="81">
+      <c r="T46" s="78">
         <v>470.01972307692301</v>
       </c>
-      <c r="U46" s="84">
+      <c r="U46" s="81">
         <v>78.926352343045195</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:U4"/>
     <mergeCell ref="W1:W4"/>
@@ -58360,34 +58430,6 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58397,7 +58439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -58405,7 +58447,7 @@
       <selection activeCell="B34" sqref="B34:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="28" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="29" customWidth="1"/>
@@ -58415,7 +58457,7 @@
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="38" t="s">
         <v>72</v>
       </c>
@@ -58441,7 +58483,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -58467,7 +58509,7 @@
         <v>0.20836918596501</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -58493,7 +58535,7 @@
         <v>8.5757259997910298E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -58519,7 +58561,7 @@
         <v>0.198500351496189</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -58545,7 +58587,7 @@
         <v>0.21581890437054499</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -58571,7 +58613,7 @@
         <v>0.165936983341304</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -58597,7 +58639,7 @@
         <v>0.23631845943909799</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -58623,7 +58665,7 @@
         <v>0.15801806002018501</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -58649,7 +58691,7 @@
         <v>8.0331071054309297E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -58675,7 +58717,7 @@
         <v>-4.4346097892528497E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -58701,7 +58743,7 @@
         <v>2.5142573109232399E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -58727,7 +58769,7 @@
         <v>0.12921456292771499</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -58753,7 +58795,7 @@
         <v>-6.2280814357659302E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -58779,7 +58821,7 @@
         <v>-1.8415999568801501E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -58805,7 +58847,7 @@
         <v>7.5270622096923603E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -58831,7 +58873,7 @@
         <v>6.6197810678531397E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -58857,7 +58899,7 @@
         <v>-8.3245406409320905E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -58883,7 +58925,7 @@
         <v>0.13337298538169401</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -58909,7 +58951,7 @@
         <v>7.8000870570044595E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -58935,7 +58977,7 @@
         <v>0.16600075262521399</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -58961,7 +59003,7 @@
         <v>0.25233809467819701</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="37">
         <v>21</v>
       </c>
@@ -58987,7 +59029,7 @@
         <v>3.53338438912578E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="37">
         <v>22</v>
       </c>
@@ -59013,7 +59055,7 @@
         <v>0.15580675589512899</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="37">
         <v>23</v>
       </c>
@@ -59039,7 +59081,7 @@
         <v>8.3516315445316694E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="37">
         <v>24</v>
       </c>
@@ -59065,7 +59107,7 @@
         <v>5.0238512785987698E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="37">
         <v>25</v>
       </c>
@@ -59091,7 +59133,7 @@
         <v>0.249248206714794</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="37">
         <v>26</v>
       </c>
@@ -59117,7 +59159,7 @@
         <v>2.3373574343291001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="37">
         <v>27</v>
       </c>
@@ -59143,7 +59185,7 @@
         <v>9.9307770736122999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="37">
         <v>28</v>
       </c>
@@ -59169,7 +59211,7 @@
         <v>7.38365475941338E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="37">
         <v>29</v>
       </c>
@@ -59195,7 +59237,7 @@
         <v>6.3931588828488997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="30">
         <v>30</v>
       </c>
@@ -59221,7 +59263,7 @@
         <v>0.12199702126492799</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="30">
         <v>31</v>
       </c>
@@ -59247,7 +59289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="30"/>
       <c r="B33" s="39">
         <v>9101</v>
@@ -59271,7 +59313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="30"/>
       <c r="B34" s="33">
         <v>70</v>
@@ -59289,7 +59331,7 @@
       <c r="G34" s="30"/>
       <c r="H34" s="30"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="30"/>
       <c r="B35" s="33">
         <v>71</v>
@@ -59307,7 +59349,7 @@
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="30"/>
       <c r="B36" s="33">
         <v>72</v>
@@ -59325,7 +59367,7 @@
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="30"/>
       <c r="B37" s="33">
         <v>73</v>
@@ -59343,7 +59385,7 @@
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="30"/>
       <c r="B38" s="33">
         <v>74</v>
@@ -59361,7 +59403,7 @@
       <c r="G38" s="30"/>
       <c r="H38" s="30"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="30"/>
       <c r="B39" s="33">
         <v>77</v>
@@ -59379,7 +59421,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="30"/>
       <c r="B40" s="33">
         <v>78</v>
@@ -59397,7 +59439,7 @@
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="30"/>
       <c r="B41" s="31"/>
       <c r="C41" s="30"/>
@@ -59407,7 +59449,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="30"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="30"/>
       <c r="B42" s="31"/>
       <c r="C42" s="30"/>
@@ -59417,7 +59459,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="30"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="30"/>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
@@ -59427,7 +59469,7 @@
       <c r="G43" s="31"/>
       <c r="H43" s="31"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="30"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
@@ -59437,7 +59479,7 @@
       <c r="G44" s="31"/>
       <c r="H44" s="31"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="30"/>
       <c r="B45" s="31"/>
       <c r="C45" s="30"/>
@@ -59447,7 +59489,7 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="30"/>
       <c r="B46" s="31"/>
       <c r="C46" s="30"/>
@@ -59457,7 +59499,7 @@
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="30"/>
       <c r="B47" s="31"/>
       <c r="C47" s="30"/>
@@ -59467,7 +59509,7 @@
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="30"/>
       <c r="B48" s="31"/>
       <c r="C48" s="30"/>
@@ -59477,7 +59519,7 @@
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="30"/>
       <c r="B49" s="31"/>
       <c r="C49" s="30"/>
@@ -59487,7 +59529,7 @@
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="30"/>
       <c r="B50" s="31"/>
       <c r="C50" s="30"/>
@@ -59497,7 +59539,7 @@
       <c r="G50" s="30"/>
       <c r="H50" s="30"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="30"/>
       <c r="B51" s="31"/>
       <c r="C51" s="30"/>
@@ -59507,7 +59549,7 @@
       <c r="G51" s="30"/>
       <c r="H51" s="30"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="30"/>
       <c r="B52" s="31"/>
       <c r="C52" s="30"/>
@@ -59517,7 +59559,7 @@
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="30"/>
       <c r="B53" s="31"/>
       <c r="C53" s="30"/>
@@ -59527,7 +59569,7 @@
       <c r="G53" s="30"/>
       <c r="H53" s="30"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="30"/>
       <c r="B54" s="31"/>
       <c r="C54" s="30"/>
@@ -59537,7 +59579,7 @@
       <c r="G54" s="30"/>
       <c r="H54" s="30"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="30"/>
       <c r="B55" s="31"/>
       <c r="C55" s="30"/>
@@ -59547,7 +59589,7 @@
       <c r="G55" s="30"/>
       <c r="H55" s="30"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="30"/>
       <c r="B56" s="31"/>
       <c r="C56" s="30"/>
@@ -59557,7 +59599,7 @@
       <c r="G56" s="30"/>
       <c r="H56" s="30"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="30"/>
       <c r="B57" s="31"/>
       <c r="C57" s="30"/>
@@ -59567,7 +59609,7 @@
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="30"/>
       <c r="B58" s="31"/>
       <c r="C58" s="30"/>
@@ -59577,7 +59619,7 @@
       <c r="G58" s="30"/>
       <c r="H58" s="30"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="30"/>
       <c r="B59" s="31"/>
       <c r="C59" s="30"/>
@@ -59587,7 +59629,7 @@
       <c r="G59" s="30"/>
       <c r="H59" s="30"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="30"/>
       <c r="B60" s="31"/>
       <c r="C60" s="30"/>
@@ -59597,7 +59639,7 @@
       <c r="G60" s="30"/>
       <c r="H60" s="30"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="30"/>
       <c r="B61" s="31"/>
       <c r="C61" s="30"/>
@@ -59607,7 +59649,7 @@
       <c r="G61" s="30"/>
       <c r="H61" s="30"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="30"/>
       <c r="B62" s="31"/>
       <c r="C62" s="30"/>
@@ -59617,7 +59659,7 @@
       <c r="G62" s="30"/>
       <c r="H62" s="30"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="30"/>
       <c r="B63" s="31"/>
       <c r="C63" s="30"/>
